--- a/1-SystemDocs/0-Testing/Chamber_measurements.xlsx
+++ b/1-SystemDocs/0-Testing/Chamber_measurements.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Hárok1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
   <si>
     <t>A2.1</t>
   </si>
@@ -142,6 +141,27 @@
   </si>
   <si>
     <t>280 ppm amonia</t>
+  </si>
+  <si>
+    <t>NO</t>
+  </si>
+  <si>
+    <t>33r 2.75k 50%VDD POS 12% bias</t>
+  </si>
+  <si>
+    <t>1000ppm NO</t>
+  </si>
+  <si>
+    <t>air [mV]</t>
+  </si>
+  <si>
+    <t>diff [V]</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>33r 35k 50%VDD POS 12% bias</t>
   </si>
 </sst>
 </file>
@@ -177,9 +197,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálne" xfId="0" builtinId="0"/>
@@ -460,20 +481,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N20"/>
+  <dimension ref="B1:N28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.5703125" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" customWidth="1"/>
     <col min="7" max="7" width="20.85546875" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="14.42578125" customWidth="1"/>
-    <col min="10" max="10" width="15" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" customWidth="1"/>
     <col min="11" max="11" width="16.5703125" customWidth="1"/>
     <col min="13" max="13" width="15.85546875" customWidth="1"/>
     <col min="14" max="14" width="16.28515625" customWidth="1"/>
@@ -826,7 +849,66 @@
         <v>1549.2829204693612</v>
       </c>
     </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>42</v>
+      </c>
+      <c r="F26" t="s">
+        <v>41</v>
+      </c>
+      <c r="G26" t="s">
+        <v>43</v>
+      </c>
+      <c r="H26" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E27">
+        <v>2469</v>
+      </c>
+      <c r="F27">
+        <v>2637</v>
+      </c>
+      <c r="G27">
+        <f>(F27-E27)/1000</f>
+        <v>0.16800000000000001</v>
+      </c>
+      <c r="H27">
+        <f>G27/2750</f>
+        <v>6.1090909090909091E-5</v>
+      </c>
+      <c r="J27" s="2"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="D28" t="s">
+        <v>45</v>
+      </c>
+      <c r="E28">
+        <v>1460</v>
+      </c>
+      <c r="F28">
+        <v>2302</v>
+      </c>
+      <c r="G28">
+        <f>(F28-E28)/1000</f>
+        <v>0.84199999999999997</v>
+      </c>
+      <c r="H28">
+        <f>G28/35000</f>
+        <v>2.4057142857142857E-5</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/1-SystemDocs/0-Testing/Chamber_measurements.xlsx
+++ b/1-SystemDocs/0-Testing/Chamber_measurements.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="122">
   <si>
     <t>A2.1</t>
   </si>
@@ -143,32 +143,286 @@
     <t>280 ppm amonia</t>
   </si>
   <si>
-    <t>NO</t>
-  </si>
-  <si>
-    <t>33r 2.75k 50%VDD POS 12% bias</t>
-  </si>
-  <si>
     <t>1000ppm NO</t>
   </si>
   <si>
-    <t>air [mV]</t>
-  </si>
-  <si>
-    <t>diff [V]</t>
-  </si>
-  <si>
     <t>A</t>
   </si>
   <si>
-    <t>33r 35k 50%VDD POS 12% bias</t>
+    <t>NO-AE</t>
+  </si>
+  <si>
+    <t>at sample</t>
+  </si>
+  <si>
+    <t>270-370</t>
+  </si>
+  <si>
+    <t>from 370</t>
+  </si>
+  <si>
+    <t>to 260</t>
+  </si>
+  <si>
+    <t>35k</t>
+  </si>
+  <si>
+    <t>33R</t>
+  </si>
+  <si>
+    <t>VDD</t>
+  </si>
+  <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>POS</t>
+  </si>
+  <si>
+    <t>3-lead amperometric</t>
+  </si>
+  <si>
+    <t>settings</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>expected rise with gain 35k</t>
+  </si>
+  <si>
+    <t>measured rise</t>
+  </si>
+  <si>
+    <t>measured sensor current</t>
+  </si>
+  <si>
+    <t>gas off</t>
+  </si>
+  <si>
+    <t>measured sensoitivity</t>
+  </si>
+  <si>
+    <t>A/ppmNO</t>
+  </si>
+  <si>
+    <t>expected rise with gain 12k</t>
+  </si>
+  <si>
+    <t>expected at 1000ppm - datasheet</t>
+  </si>
+  <si>
+    <t>14k</t>
+  </si>
+  <si>
+    <t>to 37</t>
+  </si>
+  <si>
+    <t>37-120</t>
+  </si>
+  <si>
+    <t>from120</t>
+  </si>
+  <si>
+    <t>sampling 1s</t>
+  </si>
+  <si>
+    <t>max measureable current till saturation</t>
+  </si>
+  <si>
+    <t>corresponds to ppm NO - max measurable</t>
+  </si>
+  <si>
+    <t>NO2-AE</t>
+  </si>
+  <si>
+    <t>nA/ppm NO2</t>
+  </si>
+  <si>
+    <t>A/ppm NO2</t>
+  </si>
+  <si>
+    <t>middle sensitivity - datasheet</t>
+  </si>
+  <si>
+    <t>Gain</t>
+  </si>
+  <si>
+    <t>Load R</t>
+  </si>
+  <si>
+    <t>Reference</t>
+  </si>
+  <si>
+    <t>Internal zero</t>
+  </si>
+  <si>
+    <t>Polarity bias</t>
+  </si>
+  <si>
+    <t>bias</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>exposed by 200ppm, expected current</t>
+  </si>
+  <si>
+    <t>NEG</t>
+  </si>
+  <si>
+    <t>20%</t>
+  </si>
+  <si>
+    <t>expected output at 200ppm NO2</t>
+  </si>
+  <si>
+    <t>1s sampling</t>
+  </si>
+  <si>
+    <t>200ppm NO2 outuput in mV</t>
+  </si>
+  <si>
+    <t>Output on air in mV</t>
+  </si>
+  <si>
+    <t>sample</t>
+  </si>
+  <si>
+    <t>to 40</t>
+  </si>
+  <si>
+    <t>measured rise (V)</t>
+  </si>
+  <si>
+    <t>-70 to -170 nA/ppm</t>
+  </si>
+  <si>
+    <t>40-560</t>
+  </si>
+  <si>
+    <t>from 560</t>
+  </si>
+  <si>
+    <t>measured sensoitivity on 200ppm</t>
+  </si>
+  <si>
+    <t>A/ppmNO2</t>
+  </si>
+  <si>
+    <t>nA/ppmNO2</t>
+  </si>
+  <si>
+    <t>ppm CO</t>
+  </si>
+  <si>
+    <t>to 55</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">THIS IS FINAL SETTING! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verified on 2 boards</t>
+    </r>
+  </si>
+  <si>
+    <t>55-155</t>
+  </si>
+  <si>
+    <t>from 155</t>
+  </si>
+  <si>
+    <t>HCL-A1</t>
+  </si>
+  <si>
+    <t>80 to 130 nA/ppm</t>
+  </si>
+  <si>
+    <t>nA/ppm HCL</t>
+  </si>
+  <si>
+    <t>A/ppm HCL</t>
+  </si>
+  <si>
+    <t>exposed by 25ppm, expected current</t>
+  </si>
+  <si>
+    <t>expected output at 25ppm HCL</t>
+  </si>
+  <si>
+    <t>measured sensitivity on 200ppm</t>
+  </si>
+  <si>
+    <t>ALWAYS SATURATING NEAR 5V, NO RESPONSE, ALSO ON LOWEST GAIN</t>
+  </si>
+  <si>
+    <t>HCN-A1</t>
+  </si>
+  <si>
+    <t>55 to 85 nA/ppm</t>
+  </si>
+  <si>
+    <t>nA/ppm HCN</t>
+  </si>
+  <si>
+    <t>A/ppm HCN</t>
+  </si>
+  <si>
+    <t>exposed by 50ppm, expected current</t>
+  </si>
+  <si>
+    <t>expected output at 50ppm HCN</t>
+  </si>
+  <si>
+    <t>50ppm HCN outuput in mV</t>
+  </si>
+  <si>
+    <t>measured sensitivity on 50ppm</t>
+  </si>
+  <si>
+    <t>to 50-340</t>
+  </si>
+  <si>
+    <t>from 340</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">THIS IS FINAL SETTING! </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Verified on 1 board</t>
+    </r>
+  </si>
+  <si>
+    <t>ppm HCN</t>
+  </si>
+  <si>
+    <t>air mV, slow stabilization, would be lower</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,16 +430,52 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -193,14 +483,127 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1"/>
+    <xf numFmtId="11" fontId="0" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálne" xfId="0" builtinId="0"/>
@@ -216,6 +619,324 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>35857</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Obrázok 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8448675" y="6134100"/>
+          <a:ext cx="4248150" cy="2283757"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>371476</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>104503</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Obrázok 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8448676" y="9963151"/>
+          <a:ext cx="4648200" cy="2390502"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>153405</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Obrázok 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8448675" y="13782676"/>
+          <a:ext cx="4591050" cy="2439404"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>51288</xdr:colOff>
+      <xdr:row>86</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>639408</xdr:colOff>
+      <xdr:row>98</xdr:row>
+      <xdr:rowOff>161193</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Obrázok 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8499230" y="16441615"/>
+          <a:ext cx="4867043" cy="2447193"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>104</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>828068</xdr:colOff>
+      <xdr:row>117</xdr:row>
+      <xdr:rowOff>80596</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Obrázok 8"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8447943" y="19885269"/>
+          <a:ext cx="5106990" cy="2557096"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1067062</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>43961</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="Obrázok 10"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8447942" y="26963077"/>
+          <a:ext cx="5345985" cy="2710961"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>157</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1067326</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>87923</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="Obrázok 11"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8447942" y="30018404"/>
+          <a:ext cx="5346249" cy="2945423"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>644769</xdr:colOff>
+      <xdr:row>150</xdr:row>
+      <xdr:rowOff>29308</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>908538</xdr:colOff>
+      <xdr:row>166</xdr:row>
+      <xdr:rowOff>161192</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="14" name="Rovná spojovacia šípka 13"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="10484827" y="28706885"/>
+          <a:ext cx="2073519" cy="3187211"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -481,10 +1202,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N28"/>
+  <dimension ref="B1:N174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="C134" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E166" sqref="E166"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -503,25 +1224,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="F1" t="s">
+      <c r="E1" s="13"/>
+      <c r="F1" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="I1" t="s">
+      <c r="H1" s="13"/>
+      <c r="I1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="M1" t="s">
+      <c r="L1" s="13"/>
+      <c r="M1" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="N1" t="s">
+      <c r="N1" s="3" t="s">
         <v>38</v>
       </c>
     </row>
@@ -535,18 +1259,24 @@
       <c r="D2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G2" s="5"/>
+      <c r="H2" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="L2" t="s">
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="4" t="s">
         <v>35</v>
       </c>
+      <c r="M2" s="5"/>
+      <c r="N2" s="7"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
@@ -558,21 +1288,26 @@
       <c r="D3" t="s">
         <v>7</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="4">
         <v>984</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="5">
         <v>1000</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="5">
         <v>1000</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="4">
         <v>1000</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="5">
         <v>1000</v>
       </c>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="7"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -584,21 +1319,26 @@
       <c r="D4" t="s">
         <v>9</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="4">
         <v>2037</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="5">
         <v>2000</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="5">
         <v>1950</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="4">
         <v>2038</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="5">
         <v>2038</v>
       </c>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="7"/>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -610,21 +1350,26 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="4">
         <v>485</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="5">
         <v>3798</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="5">
         <v>4239</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="4">
         <v>350</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="5">
         <v>380</v>
       </c>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="7"/>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -636,27 +1381,30 @@
       <c r="D6" t="s">
         <v>12</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <v>260</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="5">
         <v>340</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="5">
         <v>340</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="4">
         <v>382</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="5">
         <v>248.8</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="5">
         <v>216</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="5">
         <v>201.7</v>
       </c>
+      <c r="L6" s="4"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="7"/>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -668,21 +1416,26 @@
       <c r="D7" t="s">
         <v>14</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="4">
         <v>1950</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="5">
         <v>1940</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="5">
         <v>1960</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="4">
         <v>1925</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="5">
         <v>1925</v>
       </c>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="7"/>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -694,28 +1447,30 @@
       <c r="D8" t="s">
         <v>16</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="4">
         <v>510</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="5">
         <v>250</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="5">
         <v>225</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="4">
         <v>200</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="5">
         <v>160</v>
       </c>
-      <c r="L8">
+      <c r="J8" s="5"/>
+      <c r="K8" s="5"/>
+      <c r="L8" s="4">
         <v>700</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="5">
         <v>2800</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="7">
         <v>3835</v>
       </c>
     </row>
@@ -723,192 +1478,2374 @@
       <c r="B9" t="s">
         <v>21</v>
       </c>
-      <c r="E9" s="1">
+      <c r="E9" s="14">
         <v>0.43</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="5">
         <v>-2</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="5">
         <v>-2.5</v>
       </c>
+      <c r="H9" s="4"/>
+      <c r="I9" s="5"/>
+      <c r="J9" s="5"/>
+      <c r="K9" s="5"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="5"/>
+      <c r="N9" s="7"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>23</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="5">
         <v>29</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="5">
         <v>29</v>
       </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
+      <c r="K10" s="5"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="5"/>
+      <c r="N10" s="7"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="E11" s="4"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="5"/>
+      <c r="J11" s="5"/>
+      <c r="K11" s="5"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="5"/>
+      <c r="N11" s="7"/>
+    </row>
+    <row r="12" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E12" s="4"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="5"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="5"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="5"/>
+      <c r="N12" s="7"/>
     </row>
     <row r="13" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="B13" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="E13">
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="5">
         <f>((5*5100)-5100*(E5/1000))/(E5/1000)</f>
         <v>47477.319587628866</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="5">
         <f t="shared" ref="F13:G13" si="0">((5*5100)-5100*(F5/1000))/(F5/1000)</f>
         <v>1614.0600315955769</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>915.56970983722636</v>
       </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="5"/>
+      <c r="J13" s="5"/>
+      <c r="K13" s="5"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="7"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="B14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="5">
         <v>1880</v>
       </c>
-      <c r="E14">
+      <c r="D14" s="5"/>
+      <c r="E14" s="5">
         <f>$C$14/E13</f>
         <v>3.959785464573426E-2</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="5">
         <f t="shared" ref="F14:G14" si="1">$C$14/F13</f>
         <v>1.1647646080062639</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="5">
         <f t="shared" si="1"/>
         <v>2.0533663136739571</v>
       </c>
-    </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E15">
+      <c r="H14" s="4"/>
+      <c r="I14" s="5"/>
+      <c r="J14" s="5"/>
+      <c r="K14" s="5"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="5"/>
+      <c r="N14" s="7"/>
+    </row>
+    <row r="15" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="9"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10">
         <f>5419.6*E14^2.583</f>
         <v>1.2934603623161378</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="10">
         <f t="shared" ref="F15:G15" si="2">5419.6*F14^2.583</f>
         <v>8036.379120263864</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="10">
         <f t="shared" si="2"/>
         <v>34759.060581957427</v>
       </c>
-    </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
+      <c r="H15" s="4"/>
+      <c r="I15" s="5"/>
+      <c r="J15" s="5"/>
+      <c r="K15" s="5"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="5"/>
+      <c r="N15" s="7"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="H16" s="4"/>
+      <c r="I16" s="5"/>
+      <c r="J16" s="5"/>
+      <c r="K16" s="5"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="5"/>
+      <c r="N16" s="7"/>
+    </row>
+    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="H17" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="5">
         <f>I6-H6</f>
         <v>-133.19999999999999</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="5">
         <f>J6-H6</f>
         <v>-166</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="5">
         <f>K6-H6</f>
         <v>-180.3</v>
       </c>
-    </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
+      <c r="L17" s="4"/>
+      <c r="M17" s="5"/>
+      <c r="N17" s="7"/>
+    </row>
+    <row r="18" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="H18" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="10">
         <f>21.91*EXP(-0.034*I17)</f>
         <v>2029.9027279208124</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="10">
         <f t="shared" ref="J18:K18" si="3">21.91*EXP(-0.034*J17)</f>
         <v>6191.5649550714015</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="10">
         <f t="shared" si="3"/>
         <v>10068.259731091819</v>
       </c>
-    </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
+      <c r="L18" s="4"/>
+      <c r="M18" s="5"/>
+      <c r="N18" s="7"/>
+    </row>
+    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="K19" s="13"/>
+      <c r="L19" s="5"/>
+      <c r="M19" s="5"/>
+      <c r="N19" s="7"/>
+    </row>
+    <row r="20" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K20" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="10">
         <f>((5*5100)-5100*(L8/1000))/(L8/1000)</f>
         <v>31328.571428571431</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="10">
         <f>((5*5100)-5100*(M8/1000))/(M8/1000)</f>
         <v>4007.1428571428573</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="11">
         <f>((5*5100)-5100*(N8/1000))/(N8/1000)</f>
         <v>1549.2829204693612</v>
       </c>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D24" t="s">
+    <row r="21" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D22" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D23" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+      <c r="G23" s="5"/>
+      <c r="H23" s="5"/>
+      <c r="I23" s="5"/>
+      <c r="J23" s="5"/>
+      <c r="K23" s="7"/>
+    </row>
+    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D24" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G24" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H24" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I24" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J24" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K24" s="7"/>
+    </row>
+    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D25" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="E25" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="H25" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I25" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="J25" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K25" s="19"/>
+    </row>
+    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D26" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="G26" s="5"/>
+      <c r="H26" s="5"/>
+      <c r="I26" s="5"/>
+      <c r="J26" s="5"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D27" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E27" s="5">
+        <v>2573</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="G27" s="5"/>
+      <c r="H27" s="5"/>
+      <c r="I27" s="5"/>
+      <c r="J27" s="5"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D28" s="4" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="E26" t="s">
-        <v>42</v>
-      </c>
-      <c r="F26" t="s">
+      <c r="E28" s="5">
+        <v>4155</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D30" s="4"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D31" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="5">
+        <f>60*1000*0.000000001</f>
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G31" s="5"/>
+      <c r="H31" s="5"/>
+      <c r="I31" s="5"/>
+      <c r="J31" s="5"/>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="D32" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="5">
+        <f>E31*35000</f>
+        <v>2.1</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" s="5"/>
+      <c r="H32" s="5"/>
+      <c r="I32" s="5"/>
+      <c r="J32" s="5"/>
+      <c r="K32" s="7"/>
+    </row>
+    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D33" s="4"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="5"/>
+      <c r="H33" s="5"/>
+      <c r="I33" s="5"/>
+      <c r="J33" s="5"/>
+      <c r="K33" s="7"/>
+    </row>
+    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D34" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E34" s="5">
+        <f>(E28-E27)/1000</f>
+        <v>1.5820000000000001</v>
+      </c>
+      <c r="F34" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G34" s="5"/>
+      <c r="H34" s="5"/>
+      <c r="I34" s="5"/>
+      <c r="J34" s="5"/>
+      <c r="K34" s="7"/>
+    </row>
+    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D35" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="5">
+        <f>E34/35000</f>
+        <v>4.5200000000000001E-5</v>
+      </c>
+      <c r="F35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G35" s="5"/>
+      <c r="H35" s="5"/>
+      <c r="I35" s="5"/>
+      <c r="J35" s="5"/>
+      <c r="K35" s="7"/>
+    </row>
+    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D36" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E36" s="5">
+        <f>E35/1000</f>
+        <v>4.5200000000000001E-8</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G36" s="5"/>
+      <c r="H36" s="5"/>
+      <c r="I36" s="5"/>
+      <c r="J36" s="5"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D37" s="4"/>
+      <c r="E37" s="5"/>
+      <c r="F37" s="5"/>
+      <c r="G37" s="5"/>
+      <c r="H37" s="5"/>
+      <c r="I37" s="5"/>
+      <c r="J37" s="5"/>
+      <c r="K37" s="7"/>
+    </row>
+    <row r="38" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D38" s="9"/>
+      <c r="E38" s="10"/>
+      <c r="F38" s="10"/>
+      <c r="G38" s="10"/>
+      <c r="H38" s="10"/>
+      <c r="I38" s="10"/>
+      <c r="J38" s="10"/>
+      <c r="K38" s="11"/>
+    </row>
+    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="G26" t="s">
-        <v>43</v>
-      </c>
-      <c r="H26" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K39" s="3"/>
+    </row>
+    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D40" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E40" s="5"/>
+      <c r="F40" s="5"/>
+      <c r="G40" s="5"/>
+      <c r="H40" s="5"/>
+      <c r="I40" s="5"/>
+      <c r="J40" s="5"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D41" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E41" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F41" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G41" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H41" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I41" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J41" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D42" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E42" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F42" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G42" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I42" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="J42" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D43" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F43" s="5"/>
+      <c r="G43" s="5"/>
+      <c r="H43" s="5"/>
+      <c r="I43" s="5"/>
+      <c r="J43" s="5"/>
+      <c r="K43" s="7"/>
+    </row>
+    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D44" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E44" s="5">
+        <v>1062</v>
+      </c>
+      <c r="F44" s="5"/>
+      <c r="G44" s="5"/>
+      <c r="H44" s="5"/>
+      <c r="I44" s="5"/>
+      <c r="J44" s="5"/>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D45" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E45" s="5">
+        <v>2699</v>
+      </c>
+      <c r="F45" s="5"/>
+      <c r="G45" s="5"/>
+      <c r="H45" s="5"/>
+      <c r="I45" s="5"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D46" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E46" s="5"/>
+      <c r="F46" s="5"/>
+      <c r="G46" s="5"/>
+      <c r="H46" s="5"/>
+      <c r="I46" s="5"/>
+      <c r="J46" s="5"/>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D47" s="4"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="5"/>
+      <c r="G47" s="5"/>
+      <c r="H47" s="5"/>
+      <c r="I47" s="5"/>
+      <c r="J47" s="5"/>
+      <c r="K47" s="7"/>
+    </row>
+    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D48" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="5">
+        <f>60*1000*0.000000001</f>
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="F48" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E27">
-        <v>2469</v>
-      </c>
-      <c r="F27">
-        <v>2637</v>
-      </c>
-      <c r="G27">
-        <f>(F27-E27)/1000</f>
-        <v>0.16800000000000001</v>
-      </c>
-      <c r="H27">
-        <f>G27/2750</f>
-        <v>6.1090909090909091E-5</v>
-      </c>
-      <c r="J27" s="2"/>
-    </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
-      <c r="D28" t="s">
-        <v>45</v>
-      </c>
-      <c r="E28">
-        <v>1460</v>
-      </c>
-      <c r="F28">
-        <v>2302</v>
-      </c>
-      <c r="G28">
-        <f>(F28-E28)/1000</f>
-        <v>0.84199999999999997</v>
-      </c>
-      <c r="H28">
-        <f>G28/35000</f>
-        <v>2.4057142857142857E-5</v>
-      </c>
+      <c r="G48" s="5"/>
+      <c r="H48" s="5"/>
+      <c r="I48" s="5"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D49" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E49" s="5">
+        <f>E48*35000</f>
+        <v>2.1</v>
+      </c>
+      <c r="F49" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G49" s="5"/>
+      <c r="H49" s="5"/>
+      <c r="I49" s="5"/>
+      <c r="J49" s="5"/>
+      <c r="K49" s="7"/>
+    </row>
+    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D50" s="4"/>
+      <c r="E50" s="5"/>
+      <c r="F50" s="5"/>
+      <c r="G50" s="5"/>
+      <c r="H50" s="5"/>
+      <c r="I50" s="5"/>
+      <c r="J50" s="5"/>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D51" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E51" s="5">
+        <f>(E45-E44)/1000</f>
+        <v>1.637</v>
+      </c>
+      <c r="F51" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G51" s="5"/>
+      <c r="H51" s="5"/>
+      <c r="I51" s="5"/>
+      <c r="J51" s="5"/>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D52" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E52" s="5">
+        <f>E51/35000</f>
+        <v>4.6771428571428573E-5</v>
+      </c>
+      <c r="F52" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G52" s="5"/>
+      <c r="H52" s="5"/>
+      <c r="I52" s="5"/>
+      <c r="J52" s="5"/>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D53" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E53" s="5">
+        <f>E52/1000</f>
+        <v>4.677142857142857E-8</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G53" s="5"/>
+      <c r="H53" s="5"/>
+      <c r="I53" s="5"/>
+      <c r="J53" s="5"/>
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D54" s="4"/>
+      <c r="E54" s="5"/>
+      <c r="F54" s="5"/>
+      <c r="G54" s="5"/>
+      <c r="H54" s="5"/>
+      <c r="I54" s="5"/>
+      <c r="J54" s="5"/>
+      <c r="K54" s="7"/>
+    </row>
+    <row r="55" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D55" s="9"/>
+      <c r="E55" s="10"/>
+      <c r="F55" s="10"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10"/>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="11"/>
+    </row>
+    <row r="56" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D56" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2"/>
+      <c r="G56" s="2"/>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="K56" s="3"/>
+    </row>
+    <row r="57" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D57" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E57" s="5"/>
+      <c r="F57" s="5"/>
+      <c r="G57" s="5"/>
+      <c r="H57" s="5"/>
+      <c r="I57" s="5"/>
+      <c r="J57" s="5"/>
+      <c r="K57" s="7"/>
+    </row>
+    <row r="58" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D58" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E58" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F58" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G58" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H58" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I58" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J58" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K58" s="7"/>
+    </row>
+    <row r="59" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D59" s="16" t="s">
+        <v>62</v>
+      </c>
+      <c r="E59" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F59" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G59" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="H59" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="I59" s="5">
+        <v>0.06</v>
+      </c>
+      <c r="J59" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K59" s="7"/>
+    </row>
+    <row r="60" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D60" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E60" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F60" s="5"/>
+      <c r="G60" s="5"/>
+      <c r="H60" s="5"/>
+      <c r="I60" s="5"/>
+      <c r="J60" s="5"/>
+      <c r="K60" s="7"/>
+    </row>
+    <row r="61" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D61" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E61" s="5">
+        <v>1024</v>
+      </c>
+      <c r="F61" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="G61" s="5"/>
+      <c r="H61" s="5"/>
+      <c r="I61" s="5"/>
+      <c r="J61" s="5"/>
+      <c r="K61" s="7"/>
+    </row>
+    <row r="62" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D62" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E62" s="5">
+        <v>1674</v>
+      </c>
+      <c r="F62" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="G62" s="5"/>
+      <c r="H62" s="5"/>
+      <c r="I62" s="5"/>
+      <c r="J62" s="5"/>
+      <c r="K62" s="7"/>
+    </row>
+    <row r="63" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D63" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E63" s="5"/>
+      <c r="F63" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="G63" s="5"/>
+      <c r="H63" s="5"/>
+      <c r="I63" s="5"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="7"/>
+    </row>
+    <row r="64" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D64" s="4"/>
+      <c r="E64" s="5"/>
+      <c r="F64" s="5"/>
+      <c r="G64" s="5"/>
+      <c r="H64" s="5"/>
+      <c r="I64" s="5"/>
+      <c r="J64" s="5"/>
+      <c r="K64" s="7"/>
+    </row>
+    <row r="65" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D65" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="5">
+        <f>60*1000*0.000000001</f>
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="F65" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G65" s="5"/>
+      <c r="H65" s="5"/>
+      <c r="I65" s="5"/>
+      <c r="J65" s="5"/>
+      <c r="K65" s="7"/>
+    </row>
+    <row r="66" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D66" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E66" s="5">
+        <f>E65*14000</f>
+        <v>0.84</v>
+      </c>
+      <c r="F66" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G66" s="5"/>
+      <c r="H66" s="5"/>
+      <c r="I66" s="5"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="7"/>
+    </row>
+    <row r="67" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D67" s="4"/>
+      <c r="E67" s="5"/>
+      <c r="F67" s="5"/>
+      <c r="G67" s="5"/>
+      <c r="H67" s="5"/>
+      <c r="I67" s="5"/>
+      <c r="J67" s="5"/>
+      <c r="K67" s="7"/>
+    </row>
+    <row r="68" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D68" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E68" s="5">
+        <f>(E62-E61)/1000</f>
+        <v>0.65</v>
+      </c>
+      <c r="F68" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G68" s="5"/>
+      <c r="H68" s="5"/>
+      <c r="I68" s="5"/>
+      <c r="J68" s="5"/>
+      <c r="K68" s="7"/>
+    </row>
+    <row r="69" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D69" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E69" s="5">
+        <f>E68/14000</f>
+        <v>4.6428571428571429E-5</v>
+      </c>
+      <c r="F69" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G69" s="5"/>
+      <c r="H69" s="5"/>
+      <c r="I69" s="5"/>
+      <c r="J69" s="5"/>
+      <c r="K69" s="7"/>
+    </row>
+    <row r="70" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D70" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="E70" s="5">
+        <f>E69/1000</f>
+        <v>4.6428571428571431E-8</v>
+      </c>
+      <c r="F70" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="G70" s="5"/>
+      <c r="H70" s="5"/>
+      <c r="I70" s="5"/>
+      <c r="J70" s="5"/>
+      <c r="K70" s="7"/>
+    </row>
+    <row r="71" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D71" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E71" s="21"/>
+      <c r="F71" s="21"/>
+      <c r="G71" s="5"/>
+      <c r="H71" s="5"/>
+      <c r="I71" s="5"/>
+      <c r="J71" s="5"/>
+      <c r="K71" s="7"/>
+    </row>
+    <row r="72" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D72" s="20"/>
+      <c r="E72" s="21"/>
+      <c r="F72" s="21"/>
+      <c r="G72" s="5"/>
+      <c r="H72" s="5"/>
+      <c r="I72" s="5"/>
+      <c r="J72" s="5"/>
+      <c r="K72" s="7"/>
+    </row>
+    <row r="73" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D73" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E73" s="5">
+        <f>4/14000</f>
+        <v>2.8571428571428574E-4</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G73" s="5"/>
+      <c r="H73" s="5"/>
+      <c r="I73" s="5"/>
+      <c r="J73" s="5"/>
+      <c r="K73" s="7"/>
+    </row>
+    <row r="74" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D74" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E74" s="10">
+        <f>E73/E70</f>
+        <v>6153.8461538461543</v>
+      </c>
+      <c r="F74" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G74" s="10"/>
+      <c r="H74" s="10"/>
+      <c r="I74" s="10"/>
+      <c r="J74" s="10"/>
+      <c r="K74" s="11"/>
+    </row>
+    <row r="76" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D77" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="2"/>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="3"/>
+    </row>
+    <row r="78" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D78" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E78" s="5">
+        <f>(-170-70)/2</f>
+        <v>-120</v>
+      </c>
+      <c r="F78" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="G78" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="H78" s="5"/>
+      <c r="I78" s="5"/>
+      <c r="J78" s="5"/>
+      <c r="K78" s="7"/>
+    </row>
+    <row r="79" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D79" s="4"/>
+      <c r="E79" s="5">
+        <f>E78*0.000000001</f>
+        <v>-1.2000000000000002E-7</v>
+      </c>
+      <c r="F79" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="G79" s="5"/>
+      <c r="H79" s="5"/>
+      <c r="I79" s="5"/>
+      <c r="J79" s="5"/>
+      <c r="K79" s="7"/>
+    </row>
+    <row r="80" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D80" s="4"/>
+      <c r="E80" s="5"/>
+      <c r="F80" s="5"/>
+      <c r="G80" s="5"/>
+      <c r="H80" s="5"/>
+      <c r="I80" s="5"/>
+      <c r="J80" s="5"/>
+      <c r="K80" s="7"/>
+    </row>
+    <row r="81" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D81" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="E81" s="5">
+        <f>200*E79</f>
+        <v>-2.4000000000000004E-5</v>
+      </c>
+      <c r="F81" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G81" s="5"/>
+      <c r="H81" s="5"/>
+      <c r="I81" s="5"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="7"/>
+    </row>
+    <row r="82" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D82" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E82" s="5"/>
+      <c r="F82" s="5"/>
+      <c r="G82" s="5"/>
+      <c r="H82" s="5"/>
+      <c r="I82" s="5"/>
+      <c r="J82" s="5"/>
+      <c r="K82" s="7"/>
+    </row>
+    <row r="83" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D83" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E83" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F83" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G83" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I83" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J83" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K83" s="7"/>
+    </row>
+    <row r="84" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D84" s="27">
+        <v>35000</v>
+      </c>
+      <c r="E84" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F84" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G84" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="H84" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I84" s="18">
+        <v>0</v>
+      </c>
+      <c r="J84" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K84" s="19"/>
+    </row>
+    <row r="85" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D85" s="4"/>
+      <c r="E85" s="5"/>
+      <c r="F85" s="5"/>
+      <c r="G85" s="5"/>
+      <c r="H85" s="5"/>
+      <c r="I85" s="5"/>
+      <c r="J85" s="5"/>
+      <c r="K85" s="7"/>
+    </row>
+    <row r="86" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D86" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="E86" s="6">
+        <f>E81*D84</f>
+        <v>-0.84000000000000019</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G86" s="5"/>
+      <c r="H86" s="5"/>
+      <c r="I86" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="J86" s="5"/>
+      <c r="K86" s="7"/>
+    </row>
+    <row r="87" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D87" s="4"/>
+      <c r="E87" s="5"/>
+      <c r="F87" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G87" s="5"/>
+      <c r="H87" s="5"/>
+      <c r="I87" s="5"/>
+      <c r="J87" s="5"/>
+      <c r="K87" s="7"/>
+    </row>
+    <row r="88" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D88" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E88" s="5">
+        <v>1039</v>
+      </c>
+      <c r="F88" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G88" s="5"/>
+      <c r="H88" s="5"/>
+      <c r="I88" s="5"/>
+      <c r="J88" s="5"/>
+      <c r="K88" s="7"/>
+    </row>
+    <row r="89" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D89" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E89" s="5">
+        <v>710</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G89" s="5"/>
+      <c r="H89" s="5"/>
+      <c r="I89" s="5"/>
+      <c r="J89" s="5"/>
+      <c r="K89" s="7"/>
+    </row>
+    <row r="90" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D90" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E90" s="5"/>
+      <c r="F90" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="G90" s="5"/>
+      <c r="H90" s="5"/>
+      <c r="I90" s="5"/>
+      <c r="J90" s="5"/>
+      <c r="K90" s="7"/>
+    </row>
+    <row r="91" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D91" s="4"/>
+      <c r="E91" s="5"/>
+      <c r="F91" s="5"/>
+      <c r="G91" s="5"/>
+      <c r="H91" s="5"/>
+      <c r="I91" s="5"/>
+      <c r="J91" s="5"/>
+      <c r="K91" s="7"/>
+    </row>
+    <row r="92" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D92" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E92" s="5">
+        <f>(E89-E88)/1000</f>
+        <v>-0.32900000000000001</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G92" s="5"/>
+      <c r="H92" s="5"/>
+      <c r="I92" s="5"/>
+      <c r="J92" s="5"/>
+      <c r="K92" s="7"/>
+    </row>
+    <row r="93" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D93" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E93" s="6">
+        <f>E92/D84</f>
+        <v>-9.3999999999999998E-6</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G93" s="5"/>
+      <c r="H93" s="5"/>
+      <c r="I93" s="5"/>
+      <c r="J93" s="5"/>
+      <c r="K93" s="7"/>
+    </row>
+    <row r="94" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D94" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E94" s="6">
+        <f>E93/200</f>
+        <v>-4.6999999999999997E-8</v>
+      </c>
+      <c r="F94" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G94" s="5"/>
+      <c r="H94" s="5"/>
+      <c r="I94" s="5"/>
+      <c r="J94" s="5"/>
+      <c r="K94" s="7"/>
+    </row>
+    <row r="95" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D95" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="E95" s="29">
+        <f>E94*1000000000</f>
+        <v>-47</v>
+      </c>
+      <c r="F95" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G95" s="5"/>
+      <c r="H95" s="5"/>
+      <c r="I95" s="5"/>
+      <c r="J95" s="5"/>
+      <c r="K95" s="7"/>
+    </row>
+    <row r="96" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D96" s="4"/>
+      <c r="E96" s="5"/>
+      <c r="F96" s="5"/>
+      <c r="G96" s="5"/>
+      <c r="H96" s="5"/>
+      <c r="I96" s="5"/>
+      <c r="J96" s="5"/>
+      <c r="K96" s="7"/>
+    </row>
+    <row r="97" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D97" s="4"/>
+      <c r="E97" s="5"/>
+      <c r="F97" s="5"/>
+      <c r="G97" s="5"/>
+      <c r="H97" s="5"/>
+      <c r="I97" s="5"/>
+      <c r="J97" s="5"/>
+      <c r="K97" s="7"/>
+    </row>
+    <row r="98" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D98" s="4"/>
+      <c r="E98" s="5"/>
+      <c r="F98" s="5"/>
+      <c r="G98" s="5"/>
+      <c r="H98" s="5"/>
+      <c r="I98" s="5"/>
+      <c r="J98" s="5"/>
+      <c r="K98" s="7"/>
+    </row>
+    <row r="99" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D99" s="9"/>
+      <c r="E99" s="10"/>
+      <c r="F99" s="10"/>
+      <c r="G99" s="10"/>
+      <c r="H99" s="10"/>
+      <c r="I99" s="10"/>
+      <c r="J99" s="10"/>
+      <c r="K99" s="11"/>
+    </row>
+    <row r="100" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D100" s="25" t="s">
+        <v>69</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="2"/>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="3"/>
+    </row>
+    <row r="101" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D101" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E101" s="5"/>
+      <c r="F101" s="5"/>
+      <c r="G101" s="5"/>
+      <c r="H101" s="5"/>
+      <c r="I101" s="5"/>
+      <c r="J101" s="5"/>
+      <c r="K101" s="7"/>
+    </row>
+    <row r="102" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D102" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E102" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F102" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G102" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H102" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I102" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J102" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K102" s="7"/>
+    </row>
+    <row r="103" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D103" s="27">
+        <v>35000</v>
+      </c>
+      <c r="E103" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F103" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G103" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="H103" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I103" s="18">
+        <v>0</v>
+      </c>
+      <c r="J103" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K103" s="19"/>
+    </row>
+    <row r="104" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D104" s="4"/>
+      <c r="E104" s="5"/>
+      <c r="F104" s="5"/>
+      <c r="G104" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H104" s="5"/>
+      <c r="I104" s="5"/>
+      <c r="J104" s="5"/>
+      <c r="K104" s="7"/>
+    </row>
+    <row r="105" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D105" s="4"/>
+      <c r="E105" s="6"/>
+      <c r="F105" s="5"/>
+      <c r="G105" s="5"/>
+      <c r="H105" s="5"/>
+      <c r="J105" s="5"/>
+      <c r="K105" s="7"/>
+    </row>
+    <row r="106" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D106" s="4"/>
+      <c r="E106" s="5"/>
+      <c r="F106" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="G106" s="5"/>
+      <c r="H106" s="5"/>
+      <c r="I106" s="5"/>
+      <c r="J106" s="5"/>
+      <c r="K106" s="7"/>
+    </row>
+    <row r="107" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D107" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E107" s="5">
+        <v>3385</v>
+      </c>
+      <c r="F107" s="5" t="s">
+        <v>97</v>
+      </c>
+      <c r="G107" s="5"/>
+      <c r="H107" s="5"/>
+      <c r="I107" s="5"/>
+      <c r="J107" s="5"/>
+      <c r="K107" s="7"/>
+    </row>
+    <row r="108" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D108" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E108" s="5">
+        <v>3065</v>
+      </c>
+      <c r="F108" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="G108" s="5"/>
+      <c r="H108" s="5"/>
+      <c r="I108" s="5"/>
+      <c r="J108" s="5"/>
+      <c r="K108" s="7"/>
+    </row>
+    <row r="109" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D109" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E109" s="5"/>
+      <c r="F109" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="G109" s="5"/>
+      <c r="H109" s="5"/>
+      <c r="I109" s="5"/>
+      <c r="J109" s="5"/>
+      <c r="K109" s="7"/>
+    </row>
+    <row r="110" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D110" s="4"/>
+      <c r="E110" s="5"/>
+      <c r="F110" s="5"/>
+      <c r="G110" s="5"/>
+      <c r="H110" s="5"/>
+      <c r="I110" s="5"/>
+      <c r="J110" s="5"/>
+      <c r="K110" s="7"/>
+    </row>
+    <row r="111" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D111" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E111" s="5">
+        <f>(E108-E107)/1000</f>
+        <v>-0.32</v>
+      </c>
+      <c r="F111" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G111" s="5"/>
+      <c r="H111" s="5"/>
+      <c r="I111" s="5"/>
+      <c r="J111" s="5"/>
+      <c r="K111" s="7"/>
+    </row>
+    <row r="112" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D112" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E112" s="6">
+        <f>E111/D103</f>
+        <v>-9.1428571428571422E-6</v>
+      </c>
+      <c r="F112" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G112" s="5"/>
+      <c r="H112" s="5"/>
+      <c r="I112" s="5"/>
+      <c r="J112" s="5"/>
+      <c r="K112" s="7"/>
+    </row>
+    <row r="113" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D113" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E113" s="6">
+        <f>E112/200</f>
+        <v>-4.5714285714285709E-8</v>
+      </c>
+      <c r="F113" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G113" s="5"/>
+      <c r="H113" s="5"/>
+      <c r="I113" s="5"/>
+      <c r="J113" s="5"/>
+      <c r="K113" s="7"/>
+    </row>
+    <row r="114" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D114" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="E114" s="29">
+        <f>E113*1000000000</f>
+        <v>-45.714285714285708</v>
+      </c>
+      <c r="F114" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G114" s="5"/>
+      <c r="H114" s="5"/>
+      <c r="I114" s="5"/>
+      <c r="J114" s="5"/>
+      <c r="K114" s="7"/>
+    </row>
+    <row r="115" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D115" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="E115" s="21"/>
+      <c r="F115" s="21"/>
+      <c r="G115" s="5"/>
+      <c r="H115" s="5"/>
+      <c r="I115" s="5"/>
+      <c r="J115" s="5"/>
+      <c r="K115" s="7"/>
+    </row>
+    <row r="116" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="D116" s="20"/>
+      <c r="E116" s="21"/>
+      <c r="F116" s="21"/>
+      <c r="G116" s="5"/>
+      <c r="H116" s="5"/>
+      <c r="I116" s="5"/>
+      <c r="J116" s="5"/>
+      <c r="K116" s="7"/>
+    </row>
+    <row r="117" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D117" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E117" s="6">
+        <f>-3.35/D103</f>
+        <v>-9.5714285714285712E-5</v>
+      </c>
+      <c r="F117" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G117" s="5"/>
+      <c r="H117" s="5"/>
+      <c r="I117" s="5"/>
+      <c r="J117" s="5"/>
+      <c r="K117" s="7"/>
+    </row>
+    <row r="118" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D118" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E118" s="30">
+        <f>E117/E113</f>
+        <v>2093.75</v>
+      </c>
+      <c r="F118" s="24" t="s">
+        <v>96</v>
+      </c>
+      <c r="G118" s="10"/>
+      <c r="H118" s="10"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="10"/>
+      <c r="K118" s="11"/>
+    </row>
+    <row r="120" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="121" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D121" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E121" s="2"/>
+      <c r="F121" s="2"/>
+      <c r="G121" s="2"/>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="3"/>
+    </row>
+    <row r="122" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D122" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E122" s="5">
+        <f>(80+130)/2</f>
+        <v>105</v>
+      </c>
+      <c r="F122" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="G122" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="H122" s="5"/>
+      <c r="I122" s="5"/>
+      <c r="J122" s="5"/>
+      <c r="K122" s="7"/>
+    </row>
+    <row r="123" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D123" s="4"/>
+      <c r="E123" s="5">
+        <f>E122*0.000000001</f>
+        <v>1.05E-7</v>
+      </c>
+      <c r="F123" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="G123" s="5"/>
+      <c r="H123" s="5"/>
+      <c r="I123" s="5"/>
+      <c r="J123" s="5"/>
+      <c r="K123" s="7"/>
+    </row>
+    <row r="124" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D124" s="4"/>
+      <c r="E124" s="5"/>
+      <c r="F124" s="5"/>
+      <c r="G124" s="5"/>
+      <c r="H124" s="5"/>
+      <c r="I124" s="5"/>
+      <c r="J124" s="5"/>
+      <c r="K124" s="7"/>
+    </row>
+    <row r="125" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D125" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E125" s="6">
+        <f>25*E123</f>
+        <v>2.6249999999999999E-6</v>
+      </c>
+      <c r="F125" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G125" s="5"/>
+      <c r="H125" s="5"/>
+      <c r="I125" s="5"/>
+      <c r="J125" s="5"/>
+      <c r="K125" s="7"/>
+    </row>
+    <row r="126" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D126" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E126" s="5"/>
+      <c r="F126" s="5"/>
+      <c r="G126" s="5"/>
+      <c r="H126" s="5"/>
+      <c r="I126" s="5"/>
+      <c r="J126" s="5"/>
+      <c r="K126" s="7"/>
+    </row>
+    <row r="127" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D127" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E127" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F127" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G127" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H127" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I127" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J127" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K127" s="7"/>
+    </row>
+    <row r="128" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D128" s="27">
+        <v>120000</v>
+      </c>
+      <c r="E128" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F128" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G128" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="H128" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I128" s="18">
+        <v>0</v>
+      </c>
+      <c r="J128" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K128" s="19"/>
+    </row>
+    <row r="129" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D129" s="4"/>
+      <c r="E129" s="5"/>
+      <c r="F129" s="5"/>
+      <c r="G129" s="5"/>
+      <c r="H129" s="5"/>
+      <c r="I129" s="5"/>
+      <c r="J129" s="5"/>
+      <c r="K129" s="7"/>
+    </row>
+    <row r="130" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D130" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E130" s="29">
+        <f>E125*D128</f>
+        <v>0.315</v>
+      </c>
+      <c r="F130" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G130" s="5"/>
+      <c r="H130" s="5"/>
+      <c r="I130" s="5"/>
+      <c r="J130" s="5"/>
+      <c r="K130" s="7"/>
+    </row>
+    <row r="131" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D131" s="4"/>
+      <c r="E131" s="5"/>
+      <c r="F131" s="5"/>
+      <c r="G131" s="5"/>
+      <c r="H131" s="5"/>
+      <c r="I131" s="5"/>
+      <c r="J131" s="5"/>
+      <c r="K131" s="7"/>
+    </row>
+    <row r="132" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D132" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="E132" s="10"/>
+      <c r="F132" s="10"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="10"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="10"/>
+      <c r="K132" s="11"/>
+    </row>
+    <row r="133" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="134" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D134" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E134" s="2"/>
+      <c r="F134" s="2"/>
+      <c r="G134" s="2"/>
+      <c r="H134" s="2"/>
+      <c r="I134" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="J134" s="2"/>
+      <c r="K134" s="3"/>
+    </row>
+    <row r="135" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D135" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="E135" s="5">
+        <f>(55+85)/2</f>
+        <v>70</v>
+      </c>
+      <c r="F135" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="G135" s="26" t="s">
+        <v>110</v>
+      </c>
+      <c r="H135" s="5"/>
+      <c r="I135" s="5"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="7"/>
+    </row>
+    <row r="136" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D136" s="4"/>
+      <c r="E136" s="5">
+        <f>E135*0.000000001</f>
+        <v>7.0000000000000005E-8</v>
+      </c>
+      <c r="F136" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="G136" s="5"/>
+      <c r="H136" s="5"/>
+      <c r="I136" s="5"/>
+      <c r="J136" s="5"/>
+      <c r="K136" s="7"/>
+    </row>
+    <row r="137" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D137" s="4"/>
+      <c r="E137" s="5"/>
+      <c r="F137" s="5"/>
+      <c r="G137" s="5"/>
+      <c r="H137" s="5"/>
+      <c r="I137" s="5"/>
+      <c r="J137" s="5"/>
+      <c r="K137" s="7"/>
+    </row>
+    <row r="138" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D138" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E138" s="6">
+        <f>E136*50</f>
+        <v>3.5000000000000004E-6</v>
+      </c>
+      <c r="F138" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G138" s="5"/>
+      <c r="H138" s="5"/>
+      <c r="I138" s="5"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="7"/>
+    </row>
+    <row r="139" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D139" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E139" s="5"/>
+      <c r="F139" s="5"/>
+      <c r="G139" s="5"/>
+      <c r="H139" s="5"/>
+      <c r="I139" s="5"/>
+      <c r="J139" s="5"/>
+      <c r="K139" s="7"/>
+    </row>
+    <row r="140" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D140" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E140" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="F140" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="G140" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="H140" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="I140" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="J140" s="15" t="s">
+        <v>79</v>
+      </c>
+      <c r="K140" s="7"/>
+    </row>
+    <row r="141" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D141" s="27">
+        <v>120000</v>
+      </c>
+      <c r="E141" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F141" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G141" s="28">
+        <v>0.2</v>
+      </c>
+      <c r="H141" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="I141" s="18">
+        <v>0</v>
+      </c>
+      <c r="J141" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K141" s="19"/>
+    </row>
+    <row r="142" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D142" s="4"/>
+      <c r="E142" s="5"/>
+      <c r="F142" s="5"/>
+      <c r="G142" s="5"/>
+      <c r="H142" s="5"/>
+      <c r="I142" s="5"/>
+      <c r="J142" s="5"/>
+      <c r="K142" s="7"/>
+    </row>
+    <row r="143" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D143" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E143" s="29">
+        <f>E138*D141</f>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="F143" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G143" s="5"/>
+      <c r="H143" s="5"/>
+      <c r="I143" s="5"/>
+      <c r="J143" s="5"/>
+      <c r="K143" s="7"/>
+    </row>
+    <row r="144" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D144" s="4"/>
+      <c r="E144" s="5"/>
+      <c r="F144" s="15" t="s">
+        <v>87</v>
+      </c>
+      <c r="G144" s="5"/>
+      <c r="H144" s="5"/>
+      <c r="I144" s="5"/>
+      <c r="J144" s="5"/>
+      <c r="K144" s="7"/>
+    </row>
+    <row r="145" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D145" s="4" t="s">
+        <v>121</v>
+      </c>
+      <c r="E145" s="5">
+        <v>1309</v>
+      </c>
+      <c r="F145" s="15" t="s">
+        <v>117</v>
+      </c>
+      <c r="G145" s="5"/>
+      <c r="H145" s="5"/>
+      <c r="I145" s="5"/>
+      <c r="J145" s="5"/>
+      <c r="K145" s="7"/>
+    </row>
+    <row r="146" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D146" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="E146" s="5">
+        <v>1861</v>
+      </c>
+      <c r="F146" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G146" s="5"/>
+      <c r="H146" s="5"/>
+      <c r="I146" s="5"/>
+      <c r="J146" s="5"/>
+      <c r="K146" s="7"/>
+    </row>
+    <row r="147" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D147" s="4"/>
+      <c r="E147" s="5"/>
+      <c r="F147" s="5"/>
+      <c r="G147" s="5"/>
+      <c r="H147" s="5"/>
+      <c r="I147" s="5"/>
+      <c r="J147" s="5"/>
+      <c r="K147" s="7"/>
+    </row>
+    <row r="148" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D148" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="E148" s="5">
+        <f>(E146-E145)/1000</f>
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="F148" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G148" s="5"/>
+      <c r="H148" s="5"/>
+      <c r="I148" s="5"/>
+      <c r="J148" s="5"/>
+      <c r="K148" s="7"/>
+    </row>
+    <row r="149" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D149" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E149" s="6">
+        <f>E148/D141</f>
+        <v>4.6E-6</v>
+      </c>
+      <c r="F149" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G149" s="5"/>
+      <c r="H149" s="5"/>
+      <c r="I149" s="5"/>
+      <c r="J149" s="5"/>
+      <c r="K149" s="7"/>
+    </row>
+    <row r="150" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D150" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E150" s="6">
+        <f>E149/50</f>
+        <v>9.2000000000000003E-8</v>
+      </c>
+      <c r="F150" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G150" s="5"/>
+      <c r="H150" s="5"/>
+      <c r="I150" s="5"/>
+      <c r="J150" s="5"/>
+      <c r="K150" s="7"/>
+    </row>
+    <row r="151" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D151" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="E151" s="29">
+        <f>E150*1000000000</f>
+        <v>92</v>
+      </c>
+      <c r="F151" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="G151" s="5"/>
+      <c r="H151" s="5"/>
+      <c r="I151" s="5"/>
+      <c r="J151" s="5"/>
+      <c r="K151" s="7"/>
+    </row>
+    <row r="152" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D152" s="4"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="5"/>
+      <c r="H152" s="5"/>
+      <c r="I152" s="5"/>
+      <c r="J152" s="5"/>
+      <c r="K152" s="7"/>
+    </row>
+    <row r="153" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D153" s="20" t="s">
+        <v>119</v>
+      </c>
+      <c r="E153" s="21"/>
+      <c r="F153" s="21"/>
+      <c r="G153" s="5"/>
+      <c r="H153" s="5"/>
+      <c r="I153" s="5"/>
+      <c r="J153" s="5"/>
+      <c r="K153" s="7"/>
+    </row>
+    <row r="154" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D154" s="20"/>
+      <c r="E154" s="21"/>
+      <c r="F154" s="21"/>
+      <c r="G154" s="5"/>
+      <c r="H154" s="5"/>
+      <c r="I154" s="5"/>
+      <c r="J154" s="5"/>
+      <c r="K154" s="7"/>
+    </row>
+    <row r="155" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D155" s="22" t="s">
+        <v>67</v>
+      </c>
+      <c r="E155" s="6">
+        <f>4/D141</f>
+        <v>3.3333333333333335E-5</v>
+      </c>
+      <c r="F155" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G155" s="5"/>
+      <c r="H155" s="5"/>
+      <c r="I155" s="5"/>
+      <c r="J155" s="5"/>
+      <c r="K155" s="7"/>
+    </row>
+    <row r="156" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D156" s="22" t="s">
+        <v>68</v>
+      </c>
+      <c r="E156" s="31">
+        <f>E155/E150</f>
+        <v>362.31884057971013</v>
+      </c>
+      <c r="F156" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="G156" s="5"/>
+      <c r="H156" s="5"/>
+      <c r="I156" s="5"/>
+      <c r="J156" s="5"/>
+      <c r="K156" s="7"/>
+    </row>
+    <row r="157" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D157" s="4"/>
+      <c r="E157" s="5"/>
+      <c r="F157" s="5"/>
+      <c r="G157" s="5"/>
+      <c r="H157" s="5"/>
+      <c r="I157" s="5"/>
+      <c r="J157" s="5"/>
+      <c r="K157" s="7"/>
+    </row>
+    <row r="158" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D158" s="4"/>
+      <c r="E158" s="5"/>
+      <c r="F158" s="5"/>
+      <c r="G158" s="5"/>
+      <c r="H158" s="5"/>
+      <c r="I158" s="5"/>
+      <c r="J158" s="5"/>
+      <c r="K158" s="7"/>
+    </row>
+    <row r="159" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D159" s="4"/>
+      <c r="E159" s="5"/>
+      <c r="F159" s="5"/>
+      <c r="G159" s="5"/>
+      <c r="H159" s="5"/>
+      <c r="I159" s="5"/>
+      <c r="J159" s="5"/>
+      <c r="K159" s="7"/>
+    </row>
+    <row r="160" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D160" s="4"/>
+      <c r="E160" s="5"/>
+      <c r="F160" s="5"/>
+      <c r="G160" s="5"/>
+      <c r="H160" s="5"/>
+      <c r="I160" s="5"/>
+      <c r="J160" s="5"/>
+      <c r="K160" s="7"/>
+    </row>
+    <row r="161" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D161" s="4"/>
+      <c r="E161" s="5"/>
+      <c r="F161" s="5"/>
+      <c r="G161" s="5"/>
+      <c r="H161" s="5"/>
+      <c r="I161" s="5"/>
+      <c r="J161" s="5"/>
+      <c r="K161" s="7"/>
+    </row>
+    <row r="162" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D162" s="4"/>
+      <c r="E162" s="5"/>
+      <c r="F162" s="5"/>
+      <c r="G162" s="5"/>
+      <c r="H162" s="5"/>
+      <c r="I162" s="5"/>
+      <c r="J162" s="5"/>
+      <c r="K162" s="7"/>
+    </row>
+    <row r="163" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D163" s="4"/>
+      <c r="E163" s="5"/>
+      <c r="F163" s="5"/>
+      <c r="G163" s="5"/>
+      <c r="H163" s="5"/>
+      <c r="I163" s="5"/>
+      <c r="J163" s="5"/>
+      <c r="K163" s="7"/>
+    </row>
+    <row r="164" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D164" s="4"/>
+      <c r="E164" s="5"/>
+      <c r="F164" s="5"/>
+      <c r="G164" s="5"/>
+      <c r="H164" s="5"/>
+      <c r="I164" s="5"/>
+      <c r="J164" s="5"/>
+      <c r="K164" s="7"/>
+    </row>
+    <row r="165" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D165" s="4"/>
+      <c r="E165" s="5"/>
+      <c r="F165" s="5"/>
+      <c r="G165" s="5"/>
+      <c r="H165" s="5"/>
+      <c r="I165" s="5"/>
+      <c r="J165" s="5"/>
+      <c r="K165" s="7"/>
+    </row>
+    <row r="166" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D166" s="4"/>
+      <c r="E166" s="5"/>
+      <c r="F166" s="5"/>
+      <c r="G166" s="5"/>
+      <c r="H166" s="5"/>
+      <c r="I166" s="5"/>
+      <c r="J166" s="5"/>
+      <c r="K166" s="7"/>
+    </row>
+    <row r="167" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D167" s="4"/>
+      <c r="E167" s="5"/>
+      <c r="F167" s="5"/>
+      <c r="G167" s="5"/>
+      <c r="H167" s="5"/>
+      <c r="I167" s="5"/>
+      <c r="J167" s="5"/>
+      <c r="K167" s="7"/>
+    </row>
+    <row r="168" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D168" s="4"/>
+      <c r="E168" s="5"/>
+      <c r="F168" s="5"/>
+      <c r="G168" s="5"/>
+      <c r="H168" s="5"/>
+      <c r="I168" s="5"/>
+      <c r="J168" s="5"/>
+      <c r="K168" s="7"/>
+    </row>
+    <row r="169" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D169" s="4"/>
+      <c r="E169" s="5"/>
+      <c r="F169" s="5"/>
+      <c r="G169" s="5"/>
+      <c r="H169" s="5"/>
+      <c r="I169" s="5"/>
+      <c r="J169" s="5"/>
+      <c r="K169" s="7"/>
+    </row>
+    <row r="170" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D170" s="4"/>
+      <c r="E170" s="5"/>
+      <c r="F170" s="5"/>
+      <c r="G170" s="5"/>
+      <c r="H170" s="5"/>
+      <c r="I170" s="5"/>
+      <c r="J170" s="5"/>
+      <c r="K170" s="7"/>
+    </row>
+    <row r="171" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D171" s="4"/>
+      <c r="E171" s="5"/>
+      <c r="F171" s="5"/>
+      <c r="G171" s="5"/>
+      <c r="H171" s="5"/>
+      <c r="I171" s="5"/>
+      <c r="J171" s="5"/>
+      <c r="K171" s="7"/>
+    </row>
+    <row r="172" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D172" s="4"/>
+      <c r="E172" s="5"/>
+      <c r="F172" s="5"/>
+      <c r="G172" s="5"/>
+      <c r="H172" s="5"/>
+      <c r="I172" s="5"/>
+      <c r="J172" s="5"/>
+      <c r="K172" s="7"/>
+    </row>
+    <row r="173" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="D173" s="4"/>
+      <c r="E173" s="5"/>
+      <c r="F173" s="5"/>
+      <c r="G173" s="5"/>
+      <c r="H173" s="5"/>
+      <c r="I173" s="5"/>
+      <c r="J173" s="5"/>
+      <c r="K173" s="7"/>
+    </row>
+    <row r="174" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D174" s="9"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="10"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="10"/>
+      <c r="I174" s="10"/>
+      <c r="J174" s="10"/>
+      <c r="K174" s="11"/>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="D71:F72"/>
+    <mergeCell ref="D115:F116"/>
+    <mergeCell ref="D153:F154"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/1-SystemDocs/0-Testing/Chamber_measurements.xlsx
+++ b/1-SystemDocs/0-Testing/Chamber_measurements.xlsx
@@ -817,44 +817,6 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1067062</xdr:colOff>
-      <xdr:row>155</xdr:row>
-      <xdr:rowOff>43961</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Obrázok 10"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8447942" y="26963077"/>
-          <a:ext cx="5345985" cy="2710961"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
       <xdr:row>157</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
@@ -872,7 +834,7 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
@@ -889,18 +851,56 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1088409</xdr:colOff>
+      <xdr:row>156</xdr:row>
+      <xdr:rowOff>7327</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="Obrázok 14"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8455269" y="27109616"/>
+          <a:ext cx="5360005" cy="2718288"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>644769</xdr:colOff>
-      <xdr:row>150</xdr:row>
-      <xdr:rowOff>29308</xdr:rowOff>
+      <xdr:colOff>7327</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>153866</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>908538</xdr:colOff>
+      <xdr:colOff>871904</xdr:colOff>
       <xdr:row>166</xdr:row>
-      <xdr:rowOff>161192</xdr:rowOff>
+      <xdr:rowOff>183173</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -909,13 +909,13 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10484827" y="28706885"/>
-          <a:ext cx="2073519" cy="3187211"/>
+          <a:off x="9847385" y="28450443"/>
+          <a:ext cx="2674327" cy="3458307"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
-        <a:ln>
+        <a:ln w="28575">
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
@@ -1204,8 +1204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:N174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C134" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E166" sqref="E166"/>
+    <sheetView tabSelected="1" topLeftCell="C99" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E158" sqref="E158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/1-SystemDocs/0-Testing/Chamber_measurements.xlsx
+++ b/1-SystemDocs/0-Testing/Chamber_measurements.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="277" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="143">
   <si>
     <t>A2.1</t>
   </si>
@@ -204,9 +204,6 @@
   </si>
   <si>
     <t>A/ppmNO</t>
-  </si>
-  <si>
-    <t>expected rise with gain 12k</t>
   </si>
   <si>
     <t>expected at 1000ppm - datasheet</t>
@@ -363,9 +360,6 @@
     <t>measured sensitivity on 200ppm</t>
   </si>
   <si>
-    <t>ALWAYS SATURATING NEAR 5V, NO RESPONSE, ALSO ON LOWEST GAIN</t>
-  </si>
-  <si>
     <t>HCN-A1</t>
   </si>
   <si>
@@ -417,12 +411,81 @@
   <si>
     <t>air mV, slow stabilization, would be lower</t>
   </si>
+  <si>
+    <t>repeated measurement with long stabilization on air (overnight)</t>
+  </si>
+  <si>
+    <t>A/ppmHCN</t>
+  </si>
+  <si>
+    <t>nA/ppmHCN</t>
+  </si>
+  <si>
+    <t>sample 300-800</t>
+  </si>
+  <si>
+    <t>gas off, hose kept on sensor</t>
+  </si>
+  <si>
+    <t>gas off, hose off the sensor</t>
+  </si>
+  <si>
+    <t>Internal zero from 2.5V ref</t>
+  </si>
+  <si>
+    <t>exposed by 25ppm</t>
+  </si>
+  <si>
+    <t>measured sensitivity on 25ppm</t>
+  </si>
+  <si>
+    <t>A/ppmHCL</t>
+  </si>
+  <si>
+    <t>nA/ppmHCL</t>
+  </si>
+  <si>
+    <t>expected output</t>
+  </si>
+  <si>
+    <t>Internal zero from 3.3V ref</t>
+  </si>
+  <si>
+    <t>10R</t>
+  </si>
+  <si>
+    <t>expected rise with gain 14k</t>
+  </si>
+  <si>
+    <t>re-measured with final settings</t>
+  </si>
+  <si>
+    <t>Sensor inserted correctly</t>
+  </si>
+  <si>
+    <t>RE and CE switched.</t>
+  </si>
+  <si>
+    <t>measured sensitivity</t>
+  </si>
+  <si>
+    <t>Internal zero from 5V VDD</t>
+  </si>
+  <si>
+    <t>corresponds to ppm HCL - max measurable</t>
+  </si>
+  <si>
+    <t>ppm HCL</t>
+  </si>
+  <si>
+    <t>RE and CE insterted correctly</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -454,6 +517,20 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="72"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -475,7 +552,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -563,11 +640,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -588,12 +702,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1"/>
@@ -604,6 +712,36 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normálne" xfId="0" builtinId="0"/>
@@ -632,7 +770,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1047750</xdr:colOff>
+      <xdr:colOff>1047751</xdr:colOff>
       <xdr:row>37</xdr:row>
       <xdr:rowOff>35857</xdr:rowOff>
     </xdr:to>
@@ -741,13 +879,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>51288</xdr:colOff>
-      <xdr:row>86</xdr:row>
+      <xdr:row>100</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>639408</xdr:colOff>
-      <xdr:row>98</xdr:row>
+      <xdr:row>112</xdr:row>
       <xdr:rowOff>161193</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -779,13 +917,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>104</xdr:row>
+      <xdr:row>118</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>828068</xdr:colOff>
-      <xdr:row>117</xdr:row>
+      <xdr:row>131</xdr:row>
       <xdr:rowOff>80596</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -815,20 +953,20 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>157</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>307731</xdr:colOff>
+      <xdr:row>242</xdr:row>
+      <xdr:rowOff>7328</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>1067326</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>87923</xdr:rowOff>
+      <xdr:colOff>989135</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>107088</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Obrázok 11"/>
+        <xdr:cNvPr id="5" name="Obrázok 4"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -841,8 +979,240 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8447942" y="30018404"/>
-          <a:ext cx="5346249" cy="2945423"/>
+          <a:off x="10147789" y="32875905"/>
+          <a:ext cx="3568212" cy="1814260"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1088409</xdr:colOff>
+      <xdr:row>241</xdr:row>
+      <xdr:rowOff>146538</xdr:rowOff>
+    </xdr:to>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="16" name="Skupina 15"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
+        <a:xfrm>
+          <a:off x="9048750" y="40473924"/>
+          <a:ext cx="5367332" cy="5714999"/>
+          <a:chOff x="8447942" y="27109616"/>
+          <a:chExt cx="5367332" cy="5714999"/>
+        </a:xfrm>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="12" name="Obrázok 11"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8447942" y="29879192"/>
+            <a:ext cx="5346249" cy="2945423"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="15" name="Obrázok 14"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8455269" y="27109616"/>
+            <a:ext cx="5360005" cy="2718288"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="14" name="Rovná spojovacia šípka 13"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="9847385" y="28450443"/>
+            <a:ext cx="2754923" cy="3304442"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln w="28575">
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:cxnSp macro="">
+        <xdr:nvCxnSpPr>
+          <xdr:cNvPr id="10" name="Rovná spojovacia šípka 9"/>
+          <xdr:cNvCxnSpPr/>
+        </xdr:nvCxnSpPr>
+        <xdr:spPr>
+          <a:xfrm flipV="1">
+            <a:off x="9070731" y="32172519"/>
+            <a:ext cx="3135923" cy="43962"/>
+          </a:xfrm>
+          <a:prstGeom prst="straightConnector1">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:ln>
+            <a:headEnd type="triangle"/>
+            <a:tailEnd type="triangle"/>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="1">
+            <a:schemeClr val="accent1"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:schemeClr val="accent1"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="tx1"/>
+          </a:fontRef>
+        </xdr:style>
+      </xdr:cxnSp>
+      <xdr:sp macro="" textlink="">
+        <xdr:nvSpPr>
+          <xdr:cNvPr id="11" name="BlokTextu 10"/>
+          <xdr:cNvSpPr txBox="1"/>
+        </xdr:nvSpPr>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="10096500" y="31989346"/>
+            <a:ext cx="769327" cy="190500"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+          <a:solidFill>
+            <a:schemeClr val="lt1"/>
+          </a:solidFill>
+          <a:ln w="9525" cmpd="sng">
+            <a:solidFill>
+              <a:schemeClr val="lt1">
+                <a:shade val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+        </xdr:spPr>
+        <xdr:style>
+          <a:lnRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:lnRef>
+          <a:fillRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:fillRef>
+          <a:effectRef idx="0">
+            <a:scrgbClr r="0" g="0" b="0"/>
+          </a:effectRef>
+          <a:fontRef idx="minor">
+            <a:schemeClr val="dk1"/>
+          </a:fontRef>
+        </xdr:style>
+        <xdr:txBody>
+          <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100"/>
+              <a:t>ca.</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" sz="1100" baseline="0"/>
+              <a:t> 30 min</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-GB" sz="1100"/>
+          </a:p>
+        </xdr:txBody>
+      </xdr:sp>
+    </xdr:grpSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>959826</xdr:colOff>
+      <xdr:row>144</xdr:row>
+      <xdr:rowOff>187111</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>956425</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>19924</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Obrázok 16"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8587153" y="27707034"/>
+          <a:ext cx="5696945" cy="1737813"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -854,33 +1224,109 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>7327</xdr:colOff>
-      <xdr:row>141</xdr:row>
-      <xdr:rowOff>146539</xdr:rowOff>
+      <xdr:colOff>102579</xdr:colOff>
+      <xdr:row>158</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1088409</xdr:colOff>
-      <xdr:row>156</xdr:row>
-      <xdr:rowOff>7327</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>942514</xdr:colOff>
+      <xdr:row>167</xdr:row>
+      <xdr:rowOff>168518</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Obrázok 14"/>
+        <xdr:cNvPr id="20" name="Obrázok 19"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8455269" y="27109616"/>
-          <a:ext cx="5360005" cy="2718288"/>
+          <a:off x="9151329" y="27549231"/>
+          <a:ext cx="3081973" cy="1861037"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1355482</xdr:colOff>
+      <xdr:row>172</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>421679</xdr:colOff>
+      <xdr:row>186</xdr:row>
+      <xdr:rowOff>102577</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Obrázok 20"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8982809" y="32971154"/>
+          <a:ext cx="2729658" cy="2674327"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>79</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>168520</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>177731</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="Obrázok 12"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9048750" y="15108116"/>
+          <a:ext cx="3370385" cy="1892230"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -891,49 +1337,144 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>7327</xdr:colOff>
-      <xdr:row>148</xdr:row>
-      <xdr:rowOff>153866</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1399442</xdr:colOff>
+      <xdr:row>190</xdr:row>
+      <xdr:rowOff>14653</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>871904</xdr:colOff>
-      <xdr:row>166</xdr:row>
-      <xdr:rowOff>183173</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>77566</xdr:colOff>
+      <xdr:row>201</xdr:row>
+      <xdr:rowOff>161631</xdr:rowOff>
     </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="14" name="Rovná spojovacia šípka 13"/>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
+    <xdr:grpSp>
+      <xdr:nvGrpSpPr>
+        <xdr:cNvPr id="26" name="Skupina 25"/>
+        <xdr:cNvGrpSpPr/>
+      </xdr:nvGrpSpPr>
+      <xdr:grpSpPr>
         <a:xfrm>
-          <a:off x="9847385" y="28450443"/>
-          <a:ext cx="2674327" cy="3458307"/>
+          <a:off x="9026769" y="36326884"/>
+          <a:ext cx="4378470" cy="2242478"/>
+          <a:chOff x="8997462" y="36363519"/>
+          <a:chExt cx="4378470" cy="2242478"/>
         </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="28575">
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
+      </xdr:grpSpPr>
+      <xdr:pic>
+        <xdr:nvPicPr>
+          <xdr:cNvPr id="25" name="Obrázok 24"/>
+          <xdr:cNvPicPr>
+            <a:picLocks noChangeAspect="1"/>
+          </xdr:cNvPicPr>
+        </xdr:nvPicPr>
+        <xdr:blipFill>
+          <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13"/>
+          <a:stretch>
+            <a:fillRect/>
+          </a:stretch>
+        </xdr:blipFill>
+        <xdr:spPr>
+          <a:xfrm>
+            <a:off x="8997462" y="36363519"/>
+            <a:ext cx="4378470" cy="2242478"/>
+          </a:xfrm>
+          <a:prstGeom prst="rect">
+            <a:avLst/>
+          </a:prstGeom>
+        </xdr:spPr>
+      </xdr:pic>
+      <xdr:grpSp>
+        <xdr:nvGrpSpPr>
+          <xdr:cNvPr id="24" name="Skupina 23"/>
+          <xdr:cNvGrpSpPr/>
+        </xdr:nvGrpSpPr>
+        <xdr:grpSpPr>
+          <a:xfrm>
+            <a:off x="9525002" y="37469885"/>
+            <a:ext cx="1765786" cy="344367"/>
+            <a:chOff x="6506308" y="38092673"/>
+            <a:chExt cx="2923442" cy="241789"/>
+          </a:xfrm>
+        </xdr:grpSpPr>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="18" name="BlokTextu 17"/>
+            <xdr:cNvSpPr txBox="1"/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6933809" y="38092673"/>
+              <a:ext cx="2076933" cy="241789"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln w="9525" cmpd="sng">
+              <a:noFill/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:scrgbClr r="0" g="0" b="0"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="dk1"/>
+            </a:fontRef>
+          </xdr:style>
+          <xdr:txBody>
+            <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:r>
+                <a:rPr lang="en-GB" sz="800"/>
+                <a:t>exposed to 25ppm / 10.5min</a:t>
+              </a:r>
+            </a:p>
+          </xdr:txBody>
+        </xdr:sp>
+        <xdr:cxnSp macro="">
+          <xdr:nvCxnSpPr>
+            <xdr:cNvPr id="23" name="Rovná spojovacia šípka 22"/>
+            <xdr:cNvCxnSpPr/>
+          </xdr:nvCxnSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="6506308" y="38327135"/>
+              <a:ext cx="2923442" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="straightConnector1">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:ln>
+              <a:headEnd type="triangle"/>
+              <a:tailEnd type="triangle"/>
+            </a:ln>
+          </xdr:spPr>
+          <xdr:style>
+            <a:lnRef idx="1">
+              <a:schemeClr val="dk1"/>
+            </a:lnRef>
+            <a:fillRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:fillRef>
+            <a:effectRef idx="0">
+              <a:schemeClr val="dk1"/>
+            </a:effectRef>
+            <a:fontRef idx="minor">
+              <a:schemeClr val="tx1"/>
+            </a:fontRef>
+          </xdr:style>
+        </xdr:cxnSp>
+      </xdr:grpSp>
+    </xdr:grpSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1202,15 +1743,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:N174"/>
+  <dimension ref="B1:N252"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C99" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="E158" sqref="E158"/>
+    <sheetView tabSelected="1" topLeftCell="B181" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F195" sqref="F195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="27.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.140625" customWidth="1"/>
     <col min="4" max="4" width="40.5703125" customWidth="1"/>
     <col min="5" max="5" width="19.42578125" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" customWidth="1"/>
@@ -1627,7 +2169,7 @@
       <c r="M16" s="5"/>
       <c r="N16" s="7"/>
     </row>
-    <row r="17" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:14" x14ac:dyDescent="0.25">
       <c r="H17" s="4" t="s">
         <v>31</v>
       </c>
@@ -1647,7 +2189,7 @@
       <c r="M17" s="5"/>
       <c r="N17" s="7"/>
     </row>
-    <row r="18" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="H18" s="9" t="s">
         <v>34</v>
       </c>
@@ -1667,13 +2209,13 @@
       <c r="M18" s="5"/>
       <c r="N18" s="7"/>
     </row>
-    <row r="19" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:14" x14ac:dyDescent="0.25">
       <c r="K19" s="13"/>
       <c r="L19" s="5"/>
       <c r="M19" s="5"/>
       <c r="N19" s="7"/>
     </row>
-    <row r="20" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="K20" s="9" t="s">
         <v>37</v>
       </c>
@@ -1690,22 +2232,28 @@
         <v>1549.2829204693612</v>
       </c>
     </row>
-    <row r="21" spans="4:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:14" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C22" s="34" t="s">
+        <v>41</v>
+      </c>
       <c r="D22" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E22" s="2"/>
+      <c r="E22" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="F22" s="2"/>
       <c r="G22" s="2"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C23" s="35"/>
       <c r="D23" s="4" t="s">
         <v>52</v>
       </c>
@@ -1717,31 +2265,33 @@
       <c r="J23" s="5"/>
       <c r="K23" s="7"/>
     </row>
-    <row r="24" spans="4:14" x14ac:dyDescent="0.25">
-      <c r="D24" s="22" t="s">
+    <row r="24" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C24" s="35"/>
+      <c r="D24" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E24" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="F24" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="G24" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G24" s="15" t="s">
+      <c r="H24" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="I24" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="J24" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J24" s="15" t="s">
-        <v>79</v>
-      </c>
       <c r="K24" s="7"/>
     </row>
-    <row r="25" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C25" s="35"/>
       <c r="D25" s="17" t="s">
         <v>46</v>
       </c>
@@ -1765,7 +2315,8 @@
       </c>
       <c r="K25" s="19"/>
     </row>
-    <row r="26" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C26" s="35"/>
       <c r="D26" s="8" t="s">
         <v>41</v>
       </c>
@@ -1781,7 +2332,8 @@
       <c r="J26" s="5"/>
       <c r="K26" s="7"/>
     </row>
-    <row r="27" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C27" s="35"/>
       <c r="D27" s="4" t="s">
         <v>35</v>
       </c>
@@ -1797,7 +2349,8 @@
       <c r="J27" s="5"/>
       <c r="K27" s="7"/>
     </row>
-    <row r="28" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C28" s="35"/>
       <c r="D28" s="4" t="s">
         <v>39</v>
       </c>
@@ -1813,9 +2366,10 @@
       <c r="J28" s="5"/>
       <c r="K28" s="7"/>
     </row>
-    <row r="29" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C29" s="35"/>
       <c r="D29" s="4" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="E29" s="5"/>
       <c r="F29" s="5" t="s">
@@ -1827,7 +2381,8 @@
       <c r="J29" s="5"/>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C30" s="35"/>
       <c r="D30" s="4"/>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
@@ -1837,9 +2392,10 @@
       <c r="J30" s="5"/>
       <c r="K30" s="7"/>
     </row>
-    <row r="31" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C31" s="35"/>
       <c r="D31" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E31" s="5">
         <f>60*1000*0.000000001</f>
@@ -1854,7 +2410,8 @@
       <c r="J31" s="5"/>
       <c r="K31" s="7"/>
     </row>
-    <row r="32" spans="4:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C32" s="35"/>
       <c r="D32" s="4" t="s">
         <v>54</v>
       </c>
@@ -1871,7 +2428,8 @@
       <c r="J32" s="5"/>
       <c r="K32" s="7"/>
     </row>
-    <row r="33" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C33" s="35"/>
       <c r="D33" s="4"/>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
@@ -1881,7 +2439,8 @@
       <c r="J33" s="5"/>
       <c r="K33" s="7"/>
     </row>
-    <row r="34" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C34" s="35"/>
       <c r="D34" s="4" t="s">
         <v>55</v>
       </c>
@@ -1898,7 +2457,8 @@
       <c r="J34" s="5"/>
       <c r="K34" s="7"/>
     </row>
-    <row r="35" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C35" s="35"/>
       <c r="D35" s="4" t="s">
         <v>56</v>
       </c>
@@ -1915,7 +2475,8 @@
       <c r="J35" s="5"/>
       <c r="K35" s="7"/>
     </row>
-    <row r="36" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C36" s="35"/>
       <c r="D36" s="4" t="s">
         <v>58</v>
       </c>
@@ -1932,7 +2493,8 @@
       <c r="J36" s="5"/>
       <c r="K36" s="7"/>
     </row>
-    <row r="37" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C37" s="35"/>
       <c r="D37" s="4"/>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
@@ -1942,7 +2504,8 @@
       <c r="J37" s="5"/>
       <c r="K37" s="7"/>
     </row>
-    <row r="38" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C38" s="35"/>
       <c r="D38" s="9"/>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -1952,21 +2515,25 @@
       <c r="J38" s="10"/>
       <c r="K38" s="11"/>
     </row>
-    <row r="39" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C39" s="35"/>
       <c r="D39" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E39" s="2"/>
+      <c r="E39" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="F39" s="2"/>
       <c r="G39" s="2"/>
       <c r="H39" s="2"/>
       <c r="I39" s="2"/>
       <c r="J39" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C40" s="35"/>
       <c r="D40" s="4" t="s">
         <v>52</v>
       </c>
@@ -1978,31 +2545,33 @@
       <c r="J40" s="5"/>
       <c r="K40" s="7"/>
     </row>
-    <row r="41" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D41" s="22" t="s">
+    <row r="41" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C41" s="35"/>
+      <c r="D41" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E41" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E41" s="5" t="s">
+      <c r="F41" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F41" s="5" t="s">
+      <c r="G41" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="H41" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="I41" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="J41" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J41" s="15" t="s">
-        <v>79</v>
-      </c>
       <c r="K41" s="7"/>
     </row>
-    <row r="42" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C42" s="35"/>
       <c r="D42" s="4" t="s">
         <v>46</v>
       </c>
@@ -2018,7 +2587,7 @@
       <c r="H42" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="I42" s="5">
+      <c r="I42" s="31">
         <v>0.06</v>
       </c>
       <c r="J42" s="5" t="s">
@@ -2026,7 +2595,8 @@
       </c>
       <c r="K42" s="7"/>
     </row>
-    <row r="43" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C43" s="35"/>
       <c r="D43" s="8" t="s">
         <v>41</v>
       </c>
@@ -2040,7 +2610,8 @@
       <c r="J43" s="5"/>
       <c r="K43" s="7"/>
     </row>
-    <row r="44" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C44" s="35"/>
       <c r="D44" s="4" t="s">
         <v>35</v>
       </c>
@@ -2054,7 +2625,8 @@
       <c r="J44" s="5"/>
       <c r="K44" s="7"/>
     </row>
-    <row r="45" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C45" s="35"/>
       <c r="D45" s="4" t="s">
         <v>39</v>
       </c>
@@ -2068,9 +2640,10 @@
       <c r="J45" s="5"/>
       <c r="K45" s="7"/>
     </row>
-    <row r="46" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C46" s="35"/>
       <c r="D46" s="4" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="E46" s="5"/>
       <c r="F46" s="5"/>
@@ -2080,7 +2653,8 @@
       <c r="J46" s="5"/>
       <c r="K46" s="7"/>
     </row>
-    <row r="47" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C47" s="35"/>
       <c r="D47" s="4"/>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
@@ -2090,9 +2664,10 @@
       <c r="J47" s="5"/>
       <c r="K47" s="7"/>
     </row>
-    <row r="48" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C48" s="35"/>
       <c r="D48" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E48" s="5">
         <f>60*1000*0.000000001</f>
@@ -2107,7 +2682,8 @@
       <c r="J48" s="5"/>
       <c r="K48" s="7"/>
     </row>
-    <row r="49" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C49" s="35"/>
       <c r="D49" s="4" t="s">
         <v>54</v>
       </c>
@@ -2124,7 +2700,8 @@
       <c r="J49" s="5"/>
       <c r="K49" s="7"/>
     </row>
-    <row r="50" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C50" s="35"/>
       <c r="D50" s="4"/>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
@@ -2134,7 +2711,8 @@
       <c r="J50" s="5"/>
       <c r="K50" s="7"/>
     </row>
-    <row r="51" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C51" s="35"/>
       <c r="D51" s="4" t="s">
         <v>55</v>
       </c>
@@ -2151,7 +2729,8 @@
       <c r="J51" s="5"/>
       <c r="K51" s="7"/>
     </row>
-    <row r="52" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C52" s="35"/>
       <c r="D52" s="4" t="s">
         <v>56</v>
       </c>
@@ -2168,7 +2747,8 @@
       <c r="J52" s="5"/>
       <c r="K52" s="7"/>
     </row>
-    <row r="53" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C53" s="35"/>
       <c r="D53" s="4" t="s">
         <v>58</v>
       </c>
@@ -2185,7 +2765,8 @@
       <c r="J53" s="5"/>
       <c r="K53" s="7"/>
     </row>
-    <row r="54" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C54" s="35"/>
       <c r="D54" s="4"/>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
@@ -2195,7 +2776,8 @@
       <c r="J54" s="5"/>
       <c r="K54" s="7"/>
     </row>
-    <row r="55" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C55" s="35"/>
       <c r="D55" s="9"/>
       <c r="E55" s="10"/>
       <c r="F55" s="10"/>
@@ -2205,21 +2787,25 @@
       <c r="J55" s="10"/>
       <c r="K55" s="11"/>
     </row>
-    <row r="56" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C56" s="35"/>
       <c r="D56" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="E56" s="2"/>
+      <c r="E56" s="2" t="s">
+        <v>137</v>
+      </c>
       <c r="F56" s="2"/>
       <c r="G56" s="2"/>
       <c r="H56" s="2"/>
       <c r="I56" s="2"/>
       <c r="J56" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C57" s="35"/>
       <c r="D57" s="4" t="s">
         <v>52</v>
       </c>
@@ -2231,33 +2817,35 @@
       <c r="J57" s="5"/>
       <c r="K57" s="7"/>
     </row>
-    <row r="58" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D58" s="22" t="s">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C58" s="35"/>
+      <c r="D58" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E58" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E58" s="5" t="s">
+      <c r="F58" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F58" s="5" t="s">
+      <c r="G58" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="G58" s="15" t="s">
+      <c r="H58" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H58" s="15" t="s">
+      <c r="I58" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="I58" s="15" t="s">
+      <c r="J58" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J58" s="15" t="s">
-        <v>79</v>
-      </c>
       <c r="K58" s="7"/>
     </row>
-    <row r="59" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C59" s="35"/>
       <c r="D59" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>47</v>
@@ -2279,7 +2867,8 @@
       </c>
       <c r="K59" s="7"/>
     </row>
-    <row r="60" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C60" s="35"/>
       <c r="D60" s="8" t="s">
         <v>41</v>
       </c>
@@ -2293,7 +2882,8 @@
       <c r="J60" s="5"/>
       <c r="K60" s="7"/>
     </row>
-    <row r="61" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C61" s="35"/>
       <c r="D61" s="4" t="s">
         <v>35</v>
       </c>
@@ -2301,7 +2891,7 @@
         <v>1024</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G61" s="5"/>
       <c r="H61" s="5"/>
@@ -2309,7 +2899,8 @@
       <c r="J61" s="5"/>
       <c r="K61" s="7"/>
     </row>
-    <row r="62" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C62" s="35"/>
       <c r="D62" s="4" t="s">
         <v>39</v>
       </c>
@@ -2317,7 +2908,7 @@
         <v>1674</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G62" s="5"/>
       <c r="H62" s="5"/>
@@ -2325,13 +2916,14 @@
       <c r="J62" s="5"/>
       <c r="K62" s="7"/>
     </row>
-    <row r="63" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C63" s="35"/>
       <c r="D63" s="4" t="s">
-        <v>57</v>
+        <v>125</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="15" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="G63" s="5"/>
       <c r="H63" s="5"/>
@@ -2339,7 +2931,8 @@
       <c r="J63" s="5"/>
       <c r="K63" s="7"/>
     </row>
-    <row r="64" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C64" s="35"/>
       <c r="D64" s="4"/>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
@@ -2349,9 +2942,10 @@
       <c r="J64" s="5"/>
       <c r="K64" s="7"/>
     </row>
-    <row r="65" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C65" s="35"/>
       <c r="D65" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E65" s="5">
         <f>60*1000*0.000000001</f>
@@ -2366,9 +2960,10 @@
       <c r="J65" s="5"/>
       <c r="K65" s="7"/>
     </row>
-    <row r="66" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C66" s="35"/>
       <c r="D66" s="4" t="s">
-        <v>60</v>
+        <v>134</v>
       </c>
       <c r="E66" s="5">
         <f>E65*14000</f>
@@ -2383,7 +2978,8 @@
       <c r="J66" s="5"/>
       <c r="K66" s="7"/>
     </row>
-    <row r="67" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C67" s="35"/>
       <c r="D67" s="4"/>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
@@ -2393,7 +2989,8 @@
       <c r="J67" s="5"/>
       <c r="K67" s="7"/>
     </row>
-    <row r="68" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C68" s="35"/>
       <c r="D68" s="4" t="s">
         <v>55</v>
       </c>
@@ -2410,7 +3007,8 @@
       <c r="J68" s="5"/>
       <c r="K68" s="7"/>
     </row>
-    <row r="69" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C69" s="35"/>
       <c r="D69" s="4" t="s">
         <v>56</v>
       </c>
@@ -2427,9 +3025,10 @@
       <c r="J69" s="5"/>
       <c r="K69" s="7"/>
     </row>
-    <row r="70" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C70" s="35"/>
       <c r="D70" s="4" t="s">
-        <v>58</v>
+        <v>138</v>
       </c>
       <c r="E70" s="5">
         <f>E69/1000</f>
@@ -2444,31 +3043,34 @@
       <c r="J70" s="5"/>
       <c r="K70" s="7"/>
     </row>
-    <row r="71" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D71" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E71" s="21"/>
-      <c r="F71" s="21"/>
+    <row r="71" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C71" s="35"/>
+      <c r="D71" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E71" s="33"/>
+      <c r="F71" s="33"/>
       <c r="G71" s="5"/>
       <c r="H71" s="5"/>
       <c r="I71" s="5"/>
       <c r="J71" s="5"/>
       <c r="K71" s="7"/>
     </row>
-    <row r="72" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D72" s="20"/>
-      <c r="E72" s="21"/>
-      <c r="F72" s="21"/>
+    <row r="72" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C72" s="35"/>
+      <c r="D72" s="32"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
       <c r="G72" s="5"/>
       <c r="H72" s="5"/>
       <c r="I72" s="5"/>
       <c r="J72" s="5"/>
       <c r="K72" s="7"/>
     </row>
-    <row r="73" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D73" s="22" t="s">
-        <v>67</v>
+    <row r="73" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C73" s="35"/>
+      <c r="D73" s="20" t="s">
+        <v>66</v>
       </c>
       <c r="E73" s="5">
         <f>4/14000</f>
@@ -2483,16 +3085,17 @@
       <c r="J73" s="5"/>
       <c r="K73" s="7"/>
     </row>
-    <row r="74" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D74" s="23" t="s">
-        <v>68</v>
+    <row r="74" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C74" s="35"/>
+      <c r="D74" s="21" t="s">
+        <v>67</v>
       </c>
       <c r="E74" s="10">
         <f>E73/E70</f>
         <v>6153.8461538461543</v>
       </c>
-      <c r="F74" s="24" t="s">
-        <v>96</v>
+      <c r="F74" s="22" t="s">
+        <v>95</v>
       </c>
       <c r="G74" s="10"/>
       <c r="H74" s="10"/>
@@ -2500,56 +3103,105 @@
       <c r="J74" s="10"/>
       <c r="K74" s="11"/>
     </row>
-    <row r="76" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D77" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E77" s="2"/>
-      <c r="F77" s="2"/>
-      <c r="G77" s="2"/>
-      <c r="H77" s="2"/>
-      <c r="I77" s="2"/>
-      <c r="J77" s="2"/>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="78" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D78" s="4" t="s">
+    <row r="75" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C75" s="35"/>
+      <c r="D75" s="39" t="s">
+        <v>135</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="40"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="K75" s="3"/>
+    </row>
+    <row r="76" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C76" s="35"/>
+      <c r="D76" s="20" t="s">
+        <v>136</v>
+      </c>
+      <c r="E76" s="5"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="5"/>
+      <c r="H76" s="5"/>
+      <c r="I76" s="5"/>
+      <c r="J76" s="5"/>
+      <c r="K76" s="7"/>
+    </row>
+    <row r="77" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C77" s="35"/>
+      <c r="D77" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E77" s="5"/>
+      <c r="F77" s="5"/>
+      <c r="G77" s="5"/>
+      <c r="H77" s="5"/>
+      <c r="I77" s="5"/>
+      <c r="J77" s="5"/>
+      <c r="K77" s="7"/>
+    </row>
+    <row r="78" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C78" s="35"/>
+      <c r="D78" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="E78" s="5">
-        <f>(-170-70)/2</f>
-        <v>-120</v>
+      <c r="E78" s="5" t="s">
+        <v>73</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>70</v>
-      </c>
-      <c r="G78" s="26" t="s">
-        <v>90</v>
-      </c>
-      <c r="H78" s="5"/>
-      <c r="I78" s="5"/>
-      <c r="J78" s="5"/>
+        <v>74</v>
+      </c>
+      <c r="G78" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H78" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I78" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J78" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="K78" s="7"/>
     </row>
-    <row r="79" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D79" s="4"/>
-      <c r="E79" s="5">
-        <f>E78*0.000000001</f>
-        <v>-1.2000000000000002E-7</v>
-      </c>
-      <c r="F79" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="G79" s="5"/>
-      <c r="H79" s="5"/>
-      <c r="I79" s="5"/>
-      <c r="J79" s="5"/>
-      <c r="K79" s="7"/>
-    </row>
-    <row r="80" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D80" s="4"/>
-      <c r="E80" s="5"/>
+    <row r="79" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C79" s="35"/>
+      <c r="D79" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="E79" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F79" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G79" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="H79" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="I79" s="18">
+        <v>0.06</v>
+      </c>
+      <c r="J79" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K79" s="19"/>
+    </row>
+    <row r="80" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C80" s="35"/>
+      <c r="D80" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E80" s="5">
+        <v>1016</v>
+      </c>
       <c r="F80" s="5"/>
       <c r="G80" s="5"/>
       <c r="H80" s="5"/>
@@ -2557,117 +3209,103 @@
       <c r="J80" s="5"/>
       <c r="K80" s="7"/>
     </row>
-    <row r="81" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C81" s="35"/>
       <c r="D81" s="4" t="s">
-        <v>80</v>
+        <v>39</v>
       </c>
       <c r="E81" s="5">
-        <f>200*E79</f>
-        <v>-2.4000000000000004E-5</v>
-      </c>
-      <c r="F81" s="5" t="s">
-        <v>40</v>
-      </c>
+        <v>1659</v>
+      </c>
+      <c r="F81" s="5"/>
       <c r="G81" s="5"/>
       <c r="H81" s="5"/>
       <c r="I81" s="5"/>
       <c r="J81" s="5"/>
       <c r="K81" s="7"/>
     </row>
-    <row r="82" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C82" s="35"/>
       <c r="D82" s="4" t="s">
-        <v>52</v>
+        <v>125</v>
       </c>
       <c r="E82" s="5"/>
-      <c r="F82" s="5"/>
+      <c r="F82" s="15"/>
       <c r="G82" s="5"/>
       <c r="H82" s="5"/>
       <c r="I82" s="5"/>
       <c r="J82" s="5"/>
       <c r="K82" s="7"/>
     </row>
-    <row r="83" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D83" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E83" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="F83" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G83" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="H83" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I83" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="J83" s="15" t="s">
-        <v>79</v>
-      </c>
+    <row r="83" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C83" s="35"/>
+      <c r="D83" s="4"/>
+      <c r="E83" s="5"/>
+      <c r="F83" s="5"/>
+      <c r="G83" s="5"/>
+      <c r="H83" s="5"/>
+      <c r="I83" s="5"/>
+      <c r="J83" s="5"/>
       <c r="K83" s="7"/>
     </row>
-    <row r="84" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D84" s="27">
-        <v>35000</v>
-      </c>
-      <c r="E84" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F84" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G84" s="18" t="s">
-        <v>82</v>
-      </c>
-      <c r="H84" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I84" s="18">
-        <v>0</v>
-      </c>
-      <c r="J84" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="K84" s="19"/>
-    </row>
-    <row r="85" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D85" s="4"/>
-      <c r="E85" s="5"/>
-      <c r="F85" s="5"/>
+    <row r="84" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C84" s="35"/>
+      <c r="D84" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E84" s="5">
+        <f>60*1000*0.000000001</f>
+        <v>6.0000000000000002E-5</v>
+      </c>
+      <c r="F84" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G84" s="5"/>
+      <c r="H84" s="5"/>
+      <c r="I84" s="5"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="7"/>
+    </row>
+    <row r="85" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C85" s="35"/>
+      <c r="D85" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="E85" s="5">
+        <f>E84*14000</f>
+        <v>0.84</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="G85" s="5"/>
       <c r="H85" s="5"/>
       <c r="I85" s="5"/>
       <c r="J85" s="5"/>
       <c r="K85" s="7"/>
     </row>
-    <row r="86" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D86" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E86" s="6">
-        <f>E81*D84</f>
-        <v>-0.84000000000000019</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>53</v>
-      </c>
+    <row r="86" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C86" s="35"/>
+      <c r="D86" s="4"/>
+      <c r="E86" s="5"/>
+      <c r="F86" s="5"/>
       <c r="G86" s="5"/>
       <c r="H86" s="5"/>
-      <c r="I86" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="I86" s="5"/>
       <c r="J86" s="5"/>
       <c r="K86" s="7"/>
     </row>
-    <row r="87" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D87" s="4"/>
-      <c r="E87" s="5"/>
+    <row r="87" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C87" s="35"/>
+      <c r="D87" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E87" s="5">
+        <f>(E81-E80)/1000</f>
+        <v>0.64300000000000002</v>
+      </c>
       <c r="F87" s="5" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="G87" s="5"/>
       <c r="H87" s="5"/>
@@ -2675,15 +3313,17 @@
       <c r="J87" s="5"/>
       <c r="K87" s="7"/>
     </row>
-    <row r="88" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C88" s="35"/>
       <c r="D88" s="4" t="s">
-        <v>86</v>
+        <v>56</v>
       </c>
       <c r="E88" s="5">
-        <v>1039</v>
+        <f>E87/14000</f>
+        <v>4.5928571428571431E-5</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>88</v>
+        <v>40</v>
       </c>
       <c r="G88" s="5"/>
       <c r="H88" s="5"/>
@@ -2691,73 +3331,73 @@
       <c r="J88" s="5"/>
       <c r="K88" s="7"/>
     </row>
-    <row r="89" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D89" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E89" s="5">
-        <v>710</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="G89" s="5"/>
-      <c r="H89" s="5"/>
-      <c r="I89" s="5"/>
-      <c r="J89" s="5"/>
-      <c r="K89" s="7"/>
-    </row>
-    <row r="90" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D90" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E90" s="5"/>
-      <c r="F90" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="G90" s="5"/>
-      <c r="H90" s="5"/>
-      <c r="I90" s="5"/>
-      <c r="J90" s="5"/>
-      <c r="K90" s="7"/>
-    </row>
-    <row r="91" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D91" s="4"/>
-      <c r="E91" s="5"/>
-      <c r="F91" s="5"/>
-      <c r="G91" s="5"/>
-      <c r="H91" s="5"/>
-      <c r="I91" s="5"/>
-      <c r="J91" s="5"/>
-      <c r="K91" s="7"/>
-    </row>
-    <row r="92" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C89" s="36"/>
+      <c r="D89" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="E89" s="10">
+        <f>E88/1000</f>
+        <v>4.5928571428571433E-8</v>
+      </c>
+      <c r="F89" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="G89" s="10"/>
+      <c r="H89" s="10"/>
+      <c r="I89" s="10"/>
+      <c r="J89" s="10"/>
+      <c r="K89" s="11"/>
+    </row>
+    <row r="90" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D90" s="22"/>
+    </row>
+    <row r="91" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C91" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D91" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E91" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F91" s="2"/>
+      <c r="G91" s="2"/>
+      <c r="H91" s="2"/>
+      <c r="I91" s="2"/>
+      <c r="J91" s="2"/>
+      <c r="K91" s="3"/>
+    </row>
+    <row r="92" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C92" s="35"/>
       <c r="D92" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E92" s="5">
+        <f>(-170-70)/2</f>
+        <v>-120</v>
+      </c>
+      <c r="F92" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G92" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="E92" s="5">
-        <f>(E89-E88)/1000</f>
-        <v>-0.32900000000000001</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G92" s="5"/>
       <c r="H92" s="5"/>
       <c r="I92" s="5"/>
       <c r="J92" s="5"/>
       <c r="K92" s="7"/>
     </row>
-    <row r="93" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D93" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E93" s="6">
-        <f>E92/D84</f>
-        <v>-9.3999999999999998E-6</v>
+    <row r="93" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C93" s="35"/>
+      <c r="D93" s="4"/>
+      <c r="E93" s="5">
+        <f>E92*0.000000001</f>
+        <v>-1.2000000000000002E-7</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>40</v>
+        <v>70</v>
       </c>
       <c r="G93" s="5"/>
       <c r="H93" s="5"/>
@@ -2765,33 +3405,28 @@
       <c r="J93" s="5"/>
       <c r="K93" s="7"/>
     </row>
-    <row r="94" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D94" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E94" s="6">
-        <f>E93/200</f>
-        <v>-4.6999999999999997E-8</v>
-      </c>
-      <c r="F94" s="5" t="s">
-        <v>94</v>
-      </c>
+    <row r="94" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C94" s="35"/>
+      <c r="D94" s="4"/>
+      <c r="E94" s="5"/>
+      <c r="F94" s="5"/>
       <c r="G94" s="5"/>
       <c r="H94" s="5"/>
       <c r="I94" s="5"/>
       <c r="J94" s="5"/>
       <c r="K94" s="7"/>
     </row>
-    <row r="95" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C95" s="35"/>
       <c r="D95" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="E95" s="29">
-        <f>E94*1000000000</f>
-        <v>-47</v>
+        <v>79</v>
+      </c>
+      <c r="E95" s="5">
+        <f>200*E93</f>
+        <v>-2.4000000000000004E-5</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>95</v>
+        <v>40</v>
       </c>
       <c r="G95" s="5"/>
       <c r="H95" s="5"/>
@@ -2799,8 +3434,11 @@
       <c r="J95" s="5"/>
       <c r="K95" s="7"/>
     </row>
-    <row r="96" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D96" s="4"/>
+    <row r="96" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C96" s="35"/>
+      <c r="D96" s="4" t="s">
+        <v>52</v>
+      </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
       <c r="G96" s="5"/>
@@ -2809,134 +3447,171 @@
       <c r="J96" s="5"/>
       <c r="K96" s="7"/>
     </row>
-    <row r="97" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D97" s="4"/>
-      <c r="E97" s="5"/>
-      <c r="F97" s="5"/>
-      <c r="G97" s="5"/>
-      <c r="H97" s="5"/>
-      <c r="I97" s="5"/>
-      <c r="J97" s="5"/>
+    <row r="97" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C97" s="35"/>
+      <c r="D97" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E97" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F97" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G97" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H97" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I97" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J97" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="K97" s="7"/>
     </row>
-    <row r="98" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D98" s="4"/>
-      <c r="E98" s="5"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="5"/>
-      <c r="H98" s="5"/>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="7"/>
-    </row>
-    <row r="99" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D99" s="9"/>
-      <c r="E99" s="10"/>
-      <c r="F99" s="10"/>
-      <c r="G99" s="10"/>
-      <c r="H99" s="10"/>
-      <c r="I99" s="10"/>
-      <c r="J99" s="10"/>
-      <c r="K99" s="11"/>
-    </row>
-    <row r="100" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D100" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D101" s="4" t="s">
-        <v>52</v>
-      </c>
+    <row r="98" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C98" s="35"/>
+      <c r="D98" s="25">
+        <v>35000</v>
+      </c>
+      <c r="E98" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F98" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G98" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="H98" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I98" s="18">
+        <v>0</v>
+      </c>
+      <c r="J98" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K98" s="19"/>
+    </row>
+    <row r="99" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C99" s="35"/>
+      <c r="D99" s="4"/>
+      <c r="E99" s="5"/>
+      <c r="F99" s="5"/>
+      <c r="G99" s="5"/>
+      <c r="H99" s="5"/>
+      <c r="I99" s="5"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="7"/>
+    </row>
+    <row r="100" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C100" s="35"/>
+      <c r="D100" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="E100" s="6">
+        <f>E95*D98</f>
+        <v>-0.84000000000000019</v>
+      </c>
+      <c r="F100" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G100" s="5"/>
+      <c r="H100" s="5"/>
+      <c r="I100" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J100" s="5"/>
+      <c r="K100" s="7"/>
+    </row>
+    <row r="101" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C101" s="35"/>
+      <c r="D101" s="4"/>
       <c r="E101" s="5"/>
-      <c r="F101" s="5"/>
+      <c r="F101" s="5" t="s">
+        <v>86</v>
+      </c>
       <c r="G101" s="5"/>
       <c r="H101" s="5"/>
       <c r="I101" s="5"/>
       <c r="J101" s="5"/>
       <c r="K101" s="7"/>
     </row>
-    <row r="102" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D102" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E102" s="5" t="s">
-        <v>74</v>
+    <row r="102" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C102" s="35"/>
+      <c r="D102" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E102" s="5">
+        <v>1039</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G102" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="H102" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I102" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="J102" s="15" t="s">
-        <v>79</v>
-      </c>
+        <v>87</v>
+      </c>
+      <c r="G102" s="5"/>
+      <c r="H102" s="5"/>
+      <c r="I102" s="5"/>
+      <c r="J102" s="5"/>
       <c r="K102" s="7"/>
     </row>
-    <row r="103" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D103" s="27">
-        <v>35000</v>
-      </c>
-      <c r="E103" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F103" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G103" s="12">
-        <v>0.67</v>
-      </c>
-      <c r="H103" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I103" s="18">
-        <v>0</v>
-      </c>
-      <c r="J103" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="K103" s="19"/>
-    </row>
-    <row r="104" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D104" s="4"/>
+    <row r="103" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C103" s="35"/>
+      <c r="D103" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="E103" s="5">
+        <v>710</v>
+      </c>
+      <c r="F103" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="G103" s="5"/>
+      <c r="H103" s="5"/>
+      <c r="I103" s="5"/>
+      <c r="J103" s="5"/>
+      <c r="K103" s="7"/>
+    </row>
+    <row r="104" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C104" s="35"/>
+      <c r="D104" s="4" t="s">
+        <v>57</v>
+      </c>
       <c r="E104" s="5"/>
-      <c r="F104" s="5"/>
-      <c r="G104" s="5" t="s">
-        <v>84</v>
-      </c>
+      <c r="F104" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G104" s="5"/>
       <c r="H104" s="5"/>
       <c r="I104" s="5"/>
       <c r="J104" s="5"/>
       <c r="K104" s="7"/>
     </row>
-    <row r="105" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C105" s="35"/>
       <c r="D105" s="4"/>
-      <c r="E105" s="6"/>
+      <c r="E105" s="5"/>
       <c r="F105" s="5"/>
       <c r="G105" s="5"/>
       <c r="H105" s="5"/>
+      <c r="I105" s="5"/>
       <c r="J105" s="5"/>
       <c r="K105" s="7"/>
     </row>
-    <row r="106" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D106" s="4"/>
-      <c r="E106" s="5"/>
+    <row r="106" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C106" s="35"/>
+      <c r="D106" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E106" s="5">
+        <f>(E103-E102)/1000</f>
+        <v>-0.32900000000000001</v>
+      </c>
       <c r="F106" s="5" t="s">
-        <v>87</v>
+        <v>53</v>
       </c>
       <c r="G106" s="5"/>
       <c r="H106" s="5"/>
@@ -2944,15 +3619,17 @@
       <c r="J106" s="5"/>
       <c r="K106" s="7"/>
     </row>
-    <row r="107" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C107" s="35"/>
       <c r="D107" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E107" s="5">
-        <v>3385</v>
+        <v>56</v>
+      </c>
+      <c r="E107" s="6">
+        <f>E106/D98</f>
+        <v>-9.3999999999999998E-6</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>97</v>
+        <v>40</v>
       </c>
       <c r="G107" s="5"/>
       <c r="H107" s="5"/>
@@ -2960,15 +3637,17 @@
       <c r="J107" s="5"/>
       <c r="K107" s="7"/>
     </row>
-    <row r="108" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C108" s="35"/>
       <c r="D108" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E108" s="5">
-        <v>3065</v>
+        <v>92</v>
+      </c>
+      <c r="E108" s="6">
+        <f>E107/200</f>
+        <v>-4.6999999999999997E-8</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="G108" s="5"/>
       <c r="H108" s="5"/>
@@ -2976,13 +3655,17 @@
       <c r="J108" s="5"/>
       <c r="K108" s="7"/>
     </row>
-    <row r="109" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C109" s="35"/>
       <c r="D109" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E109" s="5"/>
+        <v>92</v>
+      </c>
+      <c r="E109" s="27">
+        <f>E108*1000000000</f>
+        <v>-47</v>
+      </c>
       <c r="F109" s="5" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="G109" s="5"/>
       <c r="H109" s="5"/>
@@ -2990,7 +3673,8 @@
       <c r="J109" s="5"/>
       <c r="K109" s="7"/>
     </row>
-    <row r="110" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C110" s="35"/>
       <c r="D110" s="4"/>
       <c r="E110" s="5"/>
       <c r="F110" s="5"/>
@@ -3000,170 +3684,195 @@
       <c r="J110" s="5"/>
       <c r="K110" s="7"/>
     </row>
-    <row r="111" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D111" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E111" s="5">
-        <f>(E108-E107)/1000</f>
-        <v>-0.32</v>
-      </c>
-      <c r="F111" s="5" t="s">
-        <v>53</v>
-      </c>
+    <row r="111" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C111" s="35"/>
+      <c r="D111" s="4"/>
+      <c r="E111" s="5"/>
+      <c r="F111" s="5"/>
       <c r="G111" s="5"/>
       <c r="H111" s="5"/>
       <c r="I111" s="5"/>
       <c r="J111" s="5"/>
       <c r="K111" s="7"/>
     </row>
-    <row r="112" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D112" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E112" s="6">
-        <f>E111/D103</f>
-        <v>-9.1428571428571422E-6</v>
-      </c>
-      <c r="F112" s="5" t="s">
-        <v>40</v>
-      </c>
+    <row r="112" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C112" s="35"/>
+      <c r="D112" s="4"/>
+      <c r="E112" s="5"/>
+      <c r="F112" s="5"/>
       <c r="G112" s="5"/>
       <c r="H112" s="5"/>
       <c r="I112" s="5"/>
       <c r="J112" s="5"/>
       <c r="K112" s="7"/>
     </row>
-    <row r="113" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D113" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E113" s="6">
-        <f>E112/200</f>
-        <v>-4.5714285714285709E-8</v>
-      </c>
-      <c r="F113" s="5" t="s">
-        <v>94</v>
-      </c>
-      <c r="G113" s="5"/>
-      <c r="H113" s="5"/>
-      <c r="I113" s="5"/>
-      <c r="J113" s="5"/>
-      <c r="K113" s="7"/>
-    </row>
-    <row r="114" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D114" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E114" s="29">
-        <f>E113*1000000000</f>
-        <v>-45.714285714285708</v>
-      </c>
-      <c r="F114" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="G114" s="5"/>
-      <c r="H114" s="5"/>
-      <c r="I114" s="5"/>
-      <c r="J114" s="5"/>
-      <c r="K114" s="7"/>
-    </row>
-    <row r="115" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D115" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="E115" s="21"/>
-      <c r="F115" s="21"/>
+    <row r="113" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C113" s="35"/>
+      <c r="D113" s="9"/>
+      <c r="E113" s="10"/>
+      <c r="F113" s="10"/>
+      <c r="G113" s="10"/>
+      <c r="H113" s="10"/>
+      <c r="I113" s="10"/>
+      <c r="J113" s="10"/>
+      <c r="K113" s="11"/>
+    </row>
+    <row r="114" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C114" s="35"/>
+      <c r="D114" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="E114" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+      <c r="I114" s="2"/>
+      <c r="J114" s="2"/>
+      <c r="K114" s="3"/>
+    </row>
+    <row r="115" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C115" s="35"/>
+      <c r="D115" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E115" s="5"/>
+      <c r="F115" s="5"/>
       <c r="G115" s="5"/>
       <c r="H115" s="5"/>
       <c r="I115" s="5"/>
       <c r="J115" s="5"/>
       <c r="K115" s="7"/>
     </row>
-    <row r="116" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="D116" s="20"/>
-      <c r="E116" s="21"/>
-      <c r="F116" s="21"/>
-      <c r="G116" s="5"/>
-      <c r="H116" s="5"/>
-      <c r="I116" s="5"/>
-      <c r="J116" s="5"/>
+    <row r="116" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C116" s="35"/>
+      <c r="D116" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E116" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F116" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G116" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H116" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I116" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J116" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="K116" s="7"/>
     </row>
-    <row r="117" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D117" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E117" s="6">
-        <f>-3.35/D103</f>
-        <v>-9.5714285714285712E-5</v>
-      </c>
-      <c r="F117" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G117" s="5"/>
-      <c r="H117" s="5"/>
-      <c r="I117" s="5"/>
-      <c r="J117" s="5"/>
-      <c r="K117" s="7"/>
-    </row>
-    <row r="118" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D118" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="E118" s="30">
-        <f>E117/E113</f>
-        <v>2093.75</v>
-      </c>
-      <c r="F118" s="24" t="s">
+    <row r="117" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C117" s="35"/>
+      <c r="D117" s="25">
+        <v>35000</v>
+      </c>
+      <c r="E117" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F117" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G117" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="H117" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I117" s="18">
+        <v>0</v>
+      </c>
+      <c r="J117" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K117" s="19"/>
+    </row>
+    <row r="118" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C118" s="35"/>
+      <c r="D118" s="4"/>
+      <c r="E118" s="5"/>
+      <c r="F118" s="5"/>
+      <c r="G118" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H118" s="5"/>
+      <c r="I118" s="5"/>
+      <c r="J118" s="5"/>
+      <c r="K118" s="7"/>
+    </row>
+    <row r="119" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C119" s="35"/>
+      <c r="D119" s="4"/>
+      <c r="E119" s="6"/>
+      <c r="F119" s="5"/>
+      <c r="G119" s="5"/>
+      <c r="H119" s="5"/>
+      <c r="J119" s="5"/>
+      <c r="K119" s="7"/>
+    </row>
+    <row r="120" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C120" s="35"/>
+      <c r="D120" s="4"/>
+      <c r="E120" s="5"/>
+      <c r="F120" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="G120" s="5"/>
+      <c r="H120" s="5"/>
+      <c r="I120" s="5"/>
+      <c r="J120" s="5"/>
+      <c r="K120" s="7"/>
+    </row>
+    <row r="121" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C121" s="35"/>
+      <c r="D121" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="E121" s="5">
+        <v>3385</v>
+      </c>
+      <c r="F121" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="G118" s="10"/>
-      <c r="H118" s="10"/>
-      <c r="I118" s="10"/>
-      <c r="J118" s="10"/>
-      <c r="K118" s="11"/>
-    </row>
-    <row r="120" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="121" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D121" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E121" s="2"/>
-      <c r="F121" s="2"/>
-      <c r="G121" s="2"/>
-      <c r="H121" s="2"/>
-      <c r="I121" s="2"/>
-      <c r="J121" s="2"/>
-      <c r="K121" s="3"/>
-    </row>
-    <row r="122" spans="4:11" x14ac:dyDescent="0.25">
+      <c r="G121" s="5"/>
+      <c r="H121" s="5"/>
+      <c r="I121" s="5"/>
+      <c r="J121" s="5"/>
+      <c r="K121" s="7"/>
+    </row>
+    <row r="122" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C122" s="35"/>
       <c r="D122" s="4" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="E122" s="5">
-        <f>(80+130)/2</f>
-        <v>105</v>
+        <v>3065</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>103</v>
-      </c>
-      <c r="G122" s="26" t="s">
-        <v>102</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="G122" s="5"/>
       <c r="H122" s="5"/>
       <c r="I122" s="5"/>
       <c r="J122" s="5"/>
       <c r="K122" s="7"/>
     </row>
-    <row r="123" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D123" s="4"/>
-      <c r="E123" s="5">
-        <f>E122*0.000000001</f>
-        <v>1.05E-7</v>
-      </c>
+    <row r="123" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C123" s="35"/>
+      <c r="D123" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E123" s="5"/>
       <c r="F123" s="5" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="G123" s="5"/>
       <c r="H123" s="5"/>
@@ -3171,7 +3880,8 @@
       <c r="J123" s="5"/>
       <c r="K123" s="7"/>
     </row>
-    <row r="124" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C124" s="35"/>
       <c r="D124" s="4"/>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
@@ -3181,16 +3891,17 @@
       <c r="J124" s="5"/>
       <c r="K124" s="7"/>
     </row>
-    <row r="125" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C125" s="35"/>
       <c r="D125" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="E125" s="6">
-        <f>25*E123</f>
-        <v>2.6249999999999999E-6</v>
+        <v>88</v>
+      </c>
+      <c r="E125" s="5">
+        <f>(E122-E121)/1000</f>
+        <v>-0.32</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G125" s="5"/>
       <c r="H125" s="5"/>
@@ -3198,315 +3909,320 @@
       <c r="J125" s="5"/>
       <c r="K125" s="7"/>
     </row>
-    <row r="126" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C126" s="35"/>
       <c r="D126" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E126" s="5"/>
-      <c r="F126" s="5"/>
+        <v>56</v>
+      </c>
+      <c r="E126" s="6">
+        <f>E125/D117</f>
+        <v>-9.1428571428571422E-6</v>
+      </c>
+      <c r="F126" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="G126" s="5"/>
       <c r="H126" s="5"/>
       <c r="I126" s="5"/>
       <c r="J126" s="5"/>
       <c r="K126" s="7"/>
     </row>
-    <row r="127" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D127" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E127" s="5" t="s">
-        <v>74</v>
+    <row r="127" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C127" s="35"/>
+      <c r="D127" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E127" s="6">
+        <f>E126/200</f>
+        <v>-4.5714285714285709E-8</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G127" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="H127" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="I127" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="J127" s="15" t="s">
-        <v>79</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="G127" s="5"/>
+      <c r="H127" s="5"/>
+      <c r="I127" s="5"/>
+      <c r="J127" s="5"/>
       <c r="K127" s="7"/>
     </row>
-    <row r="128" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D128" s="27">
-        <v>120000</v>
-      </c>
-      <c r="E128" s="18" t="s">
-        <v>47</v>
-      </c>
-      <c r="F128" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="G128" s="28">
-        <v>0.2</v>
-      </c>
-      <c r="H128" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I128" s="18">
-        <v>0</v>
-      </c>
-      <c r="J128" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="K128" s="19"/>
-    </row>
-    <row r="129" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D129" s="4"/>
-      <c r="E129" s="5"/>
-      <c r="F129" s="5"/>
+    <row r="128" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C128" s="35"/>
+      <c r="D128" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E128" s="27">
+        <f>E127*1000000000</f>
+        <v>-45.714285714285708</v>
+      </c>
+      <c r="F128" s="5" t="s">
+        <v>94</v>
+      </c>
+      <c r="G128" s="5"/>
+      <c r="H128" s="5"/>
+      <c r="I128" s="5"/>
+      <c r="J128" s="5"/>
+      <c r="K128" s="7"/>
+    </row>
+    <row r="129" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C129" s="35"/>
+      <c r="D129" s="32" t="s">
+        <v>97</v>
+      </c>
+      <c r="E129" s="33"/>
+      <c r="F129" s="33"/>
       <c r="G129" s="5"/>
       <c r="H129" s="5"/>
       <c r="I129" s="5"/>
       <c r="J129" s="5"/>
       <c r="K129" s="7"/>
     </row>
-    <row r="130" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D130" s="4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E130" s="29">
-        <f>E125*D128</f>
-        <v>0.315</v>
-      </c>
-      <c r="F130" s="5" t="s">
-        <v>53</v>
-      </c>
+    <row r="130" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C130" s="35"/>
+      <c r="D130" s="32"/>
+      <c r="E130" s="33"/>
+      <c r="F130" s="33"/>
       <c r="G130" s="5"/>
       <c r="H130" s="5"/>
       <c r="I130" s="5"/>
       <c r="J130" s="5"/>
       <c r="K130" s="7"/>
     </row>
-    <row r="131" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D131" s="4"/>
-      <c r="E131" s="5"/>
-      <c r="F131" s="5"/>
+    <row r="131" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C131" s="35"/>
+      <c r="D131" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E131" s="6">
+        <f>-3.35/D117</f>
+        <v>-9.5714285714285712E-5</v>
+      </c>
+      <c r="F131" s="15" t="s">
+        <v>40</v>
+      </c>
       <c r="G131" s="5"/>
       <c r="H131" s="5"/>
       <c r="I131" s="5"/>
       <c r="J131" s="5"/>
       <c r="K131" s="7"/>
     </row>
-    <row r="132" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D132" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="E132" s="10"/>
-      <c r="F132" s="10"/>
+    <row r="132" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C132" s="36"/>
+      <c r="D132" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E132" s="28">
+        <f>E131/E127</f>
+        <v>2093.75</v>
+      </c>
+      <c r="F132" s="22" t="s">
+        <v>95</v>
+      </c>
       <c r="G132" s="10"/>
       <c r="H132" s="10"/>
       <c r="I132" s="10"/>
       <c r="J132" s="10"/>
       <c r="K132" s="11"/>
     </row>
-    <row r="133" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="134" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D134" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="E134" s="2"/>
-      <c r="F134" s="2"/>
-      <c r="G134" s="2"/>
-      <c r="H134" s="2"/>
-      <c r="I134" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="J134" s="2"/>
-      <c r="K134" s="3"/>
-    </row>
-    <row r="135" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D135" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E135" s="5">
-        <f>(55+85)/2</f>
-        <v>70</v>
-      </c>
-      <c r="F135" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="G135" s="26" t="s">
-        <v>110</v>
-      </c>
-      <c r="H135" s="5"/>
-      <c r="I135" s="5"/>
-      <c r="J135" s="5"/>
-      <c r="K135" s="7"/>
-    </row>
-    <row r="136" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D136" s="4"/>
+    <row r="134" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="135" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C135" s="41" t="s">
+        <v>100</v>
+      </c>
+      <c r="D135" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E135" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+      <c r="H135" s="2"/>
+      <c r="I135" s="2"/>
+      <c r="J135" s="2"/>
+      <c r="K135" s="3"/>
+    </row>
+    <row r="136" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C136" s="42"/>
+      <c r="D136" s="4" t="s">
+        <v>71</v>
+      </c>
       <c r="E136" s="5">
-        <f>E135*0.000000001</f>
-        <v>7.0000000000000005E-8</v>
+        <f>(80+130)/2</f>
+        <v>105</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>112</v>
-      </c>
-      <c r="G136" s="5"/>
+        <v>102</v>
+      </c>
+      <c r="G136" s="24" t="s">
+        <v>101</v>
+      </c>
       <c r="H136" s="5"/>
       <c r="I136" s="5"/>
       <c r="J136" s="5"/>
       <c r="K136" s="7"/>
     </row>
-    <row r="137" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C137" s="42"/>
       <c r="D137" s="4"/>
-      <c r="E137" s="5"/>
-      <c r="F137" s="5"/>
+      <c r="E137" s="5">
+        <f>E136*0.000000001</f>
+        <v>1.05E-7</v>
+      </c>
+      <c r="F137" s="5" t="s">
+        <v>103</v>
+      </c>
       <c r="G137" s="5"/>
       <c r="H137" s="5"/>
       <c r="I137" s="5"/>
       <c r="J137" s="5"/>
       <c r="K137" s="7"/>
     </row>
-    <row r="138" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D138" s="4" t="s">
-        <v>113</v>
-      </c>
-      <c r="E138" s="6">
-        <f>E136*50</f>
-        <v>3.5000000000000004E-6</v>
-      </c>
-      <c r="F138" s="5" t="s">
-        <v>40</v>
-      </c>
+    <row r="138" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C138" s="42"/>
+      <c r="D138" s="4"/>
+      <c r="E138" s="5"/>
+      <c r="F138" s="5"/>
       <c r="G138" s="5"/>
       <c r="H138" s="5"/>
       <c r="I138" s="5"/>
       <c r="J138" s="5"/>
       <c r="K138" s="7"/>
     </row>
-    <row r="139" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C139" s="42"/>
       <c r="D139" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E139" s="5"/>
-      <c r="F139" s="5"/>
+        <v>104</v>
+      </c>
+      <c r="E139" s="6">
+        <f>25*E137</f>
+        <v>2.6249999999999999E-6</v>
+      </c>
+      <c r="F139" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="G139" s="5"/>
       <c r="H139" s="5"/>
       <c r="I139" s="5"/>
       <c r="J139" s="5"/>
       <c r="K139" s="7"/>
     </row>
-    <row r="140" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D140" s="22" t="s">
+    <row r="140" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C140" s="42"/>
+      <c r="D140" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E140" s="5"/>
+      <c r="F140" s="5"/>
+      <c r="G140" s="5"/>
+      <c r="H140" s="5"/>
+      <c r="I140" s="5"/>
+      <c r="J140" s="5"/>
+      <c r="K140" s="7"/>
+    </row>
+    <row r="141" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C141" s="42"/>
+      <c r="D141" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E141" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="E140" s="5" t="s">
+      <c r="F141" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="F140" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="G140" s="15" t="s">
+      <c r="G141" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H141" s="15" t="s">
         <v>76</v>
       </c>
-      <c r="H140" s="15" t="s">
+      <c r="I141" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="I140" s="15" t="s">
+      <c r="J141" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="J140" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="K140" s="7"/>
-    </row>
-    <row r="141" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D141" s="27">
-        <v>120000</v>
-      </c>
-      <c r="E141" s="18" t="s">
+      <c r="K141" s="7"/>
+    </row>
+    <row r="142" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C142" s="42"/>
+      <c r="D142" s="25">
+        <v>35000</v>
+      </c>
+      <c r="E142" s="18" t="s">
         <v>47</v>
       </c>
-      <c r="F141" s="18" t="s">
+      <c r="F142" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="G141" s="28">
+      <c r="G142" s="26">
         <v>0.2</v>
       </c>
-      <c r="H141" s="18" t="s">
-        <v>81</v>
-      </c>
-      <c r="I141" s="18">
+      <c r="H142" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I142" s="18">
         <v>0</v>
       </c>
-      <c r="J141" s="18" t="s">
+      <c r="J142" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="K141" s="19"/>
-    </row>
-    <row r="142" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D142" s="4"/>
-      <c r="E142" s="5"/>
-      <c r="F142" s="5"/>
-      <c r="G142" s="5"/>
-      <c r="H142" s="5"/>
-      <c r="I142" s="5"/>
-      <c r="J142" s="5"/>
-      <c r="K142" s="7"/>
-    </row>
-    <row r="143" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D143" s="4" t="s">
-        <v>114</v>
-      </c>
-      <c r="E143" s="29">
-        <f>E138*D141</f>
-        <v>0.42000000000000004</v>
-      </c>
-      <c r="F143" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="G143" s="5"/>
+      <c r="K142" s="19"/>
+    </row>
+    <row r="143" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C143" s="42"/>
+      <c r="D143" s="4"/>
+      <c r="E143" s="5"/>
+      <c r="F143" s="5"/>
+      <c r="G143" s="5">
+        <v>294.39999999999998</v>
+      </c>
       <c r="H143" s="5"/>
       <c r="I143" s="5"/>
       <c r="J143" s="5"/>
       <c r="K143" s="7"/>
     </row>
-    <row r="144" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D144" s="4"/>
-      <c r="E144" s="5"/>
-      <c r="F144" s="15" t="s">
-        <v>87</v>
-      </c>
-      <c r="G144" s="5"/>
+    <row r="144" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C144" s="42"/>
+      <c r="D144" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E144" s="27">
+        <f>E139*D142</f>
+        <v>9.1874999999999998E-2</v>
+      </c>
+      <c r="F144" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G144" s="5">
+        <v>391.78</v>
+      </c>
       <c r="H144" s="5"/>
       <c r="I144" s="5"/>
       <c r="J144" s="5"/>
       <c r="K144" s="7"/>
     </row>
-    <row r="145" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D145" s="4" t="s">
-        <v>121</v>
-      </c>
-      <c r="E145" s="5">
-        <v>1309</v>
-      </c>
-      <c r="F145" s="15" t="s">
-        <v>117</v>
-      </c>
+    <row r="145" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C145" s="42"/>
+      <c r="D145" s="4"/>
+      <c r="E145" s="5"/>
+      <c r="F145" s="5"/>
       <c r="G145" s="5"/>
       <c r="H145" s="5"/>
       <c r="I145" s="5"/>
       <c r="J145" s="5"/>
       <c r="K145" s="7"/>
     </row>
-    <row r="146" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C146" s="42"/>
       <c r="D146" s="4" t="s">
-        <v>115</v>
+        <v>35</v>
       </c>
       <c r="E146" s="5">
-        <v>1861</v>
+        <v>294.39999999999998</v>
       </c>
       <c r="F146" s="15" t="s">
-        <v>118</v>
+        <v>25</v>
       </c>
       <c r="G146" s="5"/>
       <c r="H146" s="5"/>
@@ -3514,43 +4230,45 @@
       <c r="J146" s="5"/>
       <c r="K146" s="7"/>
     </row>
-    <row r="147" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D147" s="4"/>
-      <c r="E147" s="5"/>
-      <c r="F147" s="5"/>
+    <row r="147" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C147" s="42"/>
+      <c r="D147" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E147" s="5">
+        <v>391.78</v>
+      </c>
+      <c r="F147" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="G147" s="5"/>
       <c r="H147" s="5"/>
       <c r="I147" s="5"/>
       <c r="J147" s="5"/>
       <c r="K147" s="7"/>
     </row>
-    <row r="148" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D148" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E148" s="5">
-        <f>(E146-E145)/1000</f>
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="F148" s="5" t="s">
-        <v>53</v>
-      </c>
+    <row r="148" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C148" s="42"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="5"/>
+      <c r="F148" s="5"/>
       <c r="G148" s="5"/>
       <c r="H148" s="5"/>
-      <c r="I148" s="5"/>
+      <c r="I148" s="6"/>
       <c r="J148" s="5"/>
       <c r="K148" s="7"/>
     </row>
-    <row r="149" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C149" s="42"/>
       <c r="D149" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="E149" s="6">
-        <f>E148/D141</f>
-        <v>4.6E-6</v>
+        <v>88</v>
+      </c>
+      <c r="E149" s="5">
+        <f>(E147-E146)/1000</f>
+        <v>9.7379999999999994E-2</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>40</v>
+        <v>53</v>
       </c>
       <c r="G149" s="5"/>
       <c r="H149" s="5"/>
@@ -3558,16 +4276,17 @@
       <c r="J149" s="5"/>
       <c r="K149" s="7"/>
     </row>
-    <row r="150" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C150" s="42"/>
       <c r="D150" s="4" t="s">
-        <v>116</v>
+        <v>56</v>
       </c>
       <c r="E150" s="6">
-        <f>E149/50</f>
-        <v>9.2000000000000003E-8</v>
+        <f>E149/D142</f>
+        <v>2.782285714285714E-6</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>94</v>
+        <v>40</v>
       </c>
       <c r="G150" s="5"/>
       <c r="H150" s="5"/>
@@ -3575,16 +4294,17 @@
       <c r="J150" s="5"/>
       <c r="K150" s="7"/>
     </row>
-    <row r="151" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C151" s="42"/>
       <c r="D151" s="4" t="s">
-        <v>116</v>
-      </c>
-      <c r="E151" s="29">
-        <f>E150*1000000000</f>
-        <v>92</v>
+        <v>128</v>
+      </c>
+      <c r="E151" s="6">
+        <f>E150/25</f>
+        <v>1.1129142857142856E-7</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>95</v>
+        <v>129</v>
       </c>
       <c r="G151" s="5"/>
       <c r="H151" s="5"/>
@@ -3592,93 +4312,124 @@
       <c r="J151" s="5"/>
       <c r="K151" s="7"/>
     </row>
-    <row r="152" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D152" s="4"/>
-      <c r="E152" s="5"/>
-      <c r="F152" s="5"/>
+    <row r="152" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C152" s="42"/>
+      <c r="D152" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E152" s="27">
+        <f>E151*1000000000</f>
+        <v>111.29142857142855</v>
+      </c>
+      <c r="F152" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="G152" s="5"/>
       <c r="H152" s="5"/>
       <c r="I152" s="5"/>
       <c r="J152" s="5"/>
       <c r="K152" s="7"/>
     </row>
-    <row r="153" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D153" s="20" t="s">
-        <v>119</v>
-      </c>
-      <c r="E153" s="21"/>
-      <c r="F153" s="21"/>
+    <row r="153" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C153" s="42"/>
+      <c r="D153" s="4"/>
+      <c r="E153" s="5"/>
+      <c r="F153" s="5"/>
       <c r="G153" s="5"/>
       <c r="H153" s="5"/>
       <c r="I153" s="5"/>
       <c r="J153" s="5"/>
       <c r="K153" s="7"/>
     </row>
-    <row r="154" spans="4:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D154" s="20"/>
-      <c r="E154" s="21"/>
-      <c r="F154" s="21"/>
+    <row r="154" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C154" s="42"/>
+      <c r="D154" s="4"/>
+      <c r="E154" s="5"/>
+      <c r="F154" s="5"/>
       <c r="G154" s="5"/>
       <c r="H154" s="5"/>
       <c r="I154" s="5"/>
       <c r="J154" s="5"/>
       <c r="K154" s="7"/>
     </row>
-    <row r="155" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D155" s="22" t="s">
-        <v>67</v>
-      </c>
-      <c r="E155" s="6">
-        <f>4/D141</f>
-        <v>3.3333333333333335E-5</v>
-      </c>
-      <c r="F155" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="G155" s="5"/>
-      <c r="H155" s="5"/>
-      <c r="I155" s="5"/>
-      <c r="J155" s="5"/>
-      <c r="K155" s="7"/>
-    </row>
-    <row r="156" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D156" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="E156" s="31">
-        <f>E155/E150</f>
-        <v>362.31884057971013</v>
-      </c>
-      <c r="F156" s="15" t="s">
-        <v>120</v>
-      </c>
-      <c r="G156" s="5"/>
-      <c r="H156" s="5"/>
-      <c r="I156" s="5"/>
-      <c r="J156" s="5"/>
-      <c r="K156" s="7"/>
-    </row>
-    <row r="157" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D157" s="4"/>
-      <c r="E157" s="5"/>
-      <c r="F157" s="5"/>
-      <c r="G157" s="5"/>
-      <c r="H157" s="5"/>
-      <c r="I157" s="5"/>
-      <c r="J157" s="5"/>
+    <row r="155" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C155" s="42"/>
+      <c r="D155" s="9"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="10"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="10"/>
+      <c r="I155" s="10"/>
+      <c r="J155" s="10"/>
+      <c r="K155" s="11"/>
+    </row>
+    <row r="156" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C156" s="42"/>
+      <c r="D156" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E156" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F156" s="2"/>
+      <c r="G156" s="2"/>
+      <c r="H156" s="2"/>
+      <c r="I156" s="2"/>
+      <c r="J156" s="2"/>
+      <c r="K156" s="3"/>
+    </row>
+    <row r="157" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C157" s="42"/>
+      <c r="D157" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E157" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F157" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G157" s="15" t="s">
+        <v>126</v>
+      </c>
+      <c r="H157" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I157" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J157" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="K157" s="7"/>
     </row>
-    <row r="158" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D158" s="4"/>
-      <c r="E158" s="5"/>
-      <c r="F158" s="5"/>
-      <c r="G158" s="5"/>
-      <c r="H158" s="5"/>
-      <c r="I158" s="5"/>
-      <c r="J158" s="5"/>
-      <c r="K158" s="7"/>
-    </row>
-    <row r="159" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C158" s="42"/>
+      <c r="D158" s="37">
+        <v>14000</v>
+      </c>
+      <c r="E158" s="38" t="s">
+        <v>133</v>
+      </c>
+      <c r="F158" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G158" s="12">
+        <v>0.5</v>
+      </c>
+      <c r="H158" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I158" s="18">
+        <v>0</v>
+      </c>
+      <c r="J158" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K158" s="19"/>
+    </row>
+    <row r="159" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C159" s="42"/>
       <c r="D159" s="4"/>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
@@ -3688,17 +4439,26 @@
       <c r="J159" s="5"/>
       <c r="K159" s="7"/>
     </row>
-    <row r="160" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D160" s="4"/>
-      <c r="E160" s="5"/>
-      <c r="F160" s="5"/>
+    <row r="160" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C160" s="42"/>
+      <c r="D160" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E160" s="27">
+        <f>E139*D158</f>
+        <v>3.6749999999999998E-2</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="G160" s="5"/>
       <c r="H160" s="5"/>
       <c r="I160" s="5"/>
       <c r="J160" s="5"/>
       <c r="K160" s="7"/>
     </row>
-    <row r="161" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C161" s="42"/>
       <c r="D161" s="4"/>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
@@ -3708,27 +4468,42 @@
       <c r="J161" s="5"/>
       <c r="K161" s="7"/>
     </row>
-    <row r="162" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D162" s="4"/>
-      <c r="E162" s="5"/>
-      <c r="F162" s="5"/>
+    <row r="162" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C162" s="42"/>
+      <c r="D162" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E162" s="5">
+        <v>1590</v>
+      </c>
+      <c r="F162" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="G162" s="5"/>
       <c r="H162" s="5"/>
       <c r="I162" s="5"/>
       <c r="J162" s="5"/>
       <c r="K162" s="7"/>
     </row>
-    <row r="163" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D163" s="4"/>
-      <c r="E163" s="5"/>
-      <c r="F163" s="5"/>
+    <row r="163" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C163" s="42"/>
+      <c r="D163" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E163" s="5">
+        <v>1629</v>
+      </c>
+      <c r="F163" s="15" t="s">
+        <v>25</v>
+      </c>
       <c r="G163" s="5"/>
       <c r="H163" s="5"/>
       <c r="I163" s="5"/>
       <c r="J163" s="5"/>
       <c r="K163" s="7"/>
     </row>
-    <row r="164" spans="4:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C164" s="42"/>
       <c r="D164" s="4"/>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
@@ -3738,111 +4513,1344 @@
       <c r="J164" s="5"/>
       <c r="K164" s="7"/>
     </row>
-    <row r="165" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D165" s="4"/>
-      <c r="E165" s="5"/>
-      <c r="F165" s="5"/>
+    <row r="165" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C165" s="42"/>
+      <c r="D165" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E165" s="5">
+        <f>(E163-E162)/1000</f>
+        <v>3.9E-2</v>
+      </c>
+      <c r="F165" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="G165" s="5"/>
       <c r="H165" s="5"/>
       <c r="I165" s="5"/>
       <c r="J165" s="5"/>
       <c r="K165" s="7"/>
     </row>
-    <row r="166" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D166" s="4"/>
-      <c r="E166" s="5"/>
-      <c r="F166" s="5"/>
+    <row r="166" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C166" s="42"/>
+      <c r="D166" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E166" s="6">
+        <f>E165/D158</f>
+        <v>2.7857142857142858E-6</v>
+      </c>
+      <c r="F166" s="5" t="s">
+        <v>40</v>
+      </c>
       <c r="G166" s="5"/>
       <c r="H166" s="5"/>
       <c r="I166" s="5"/>
       <c r="J166" s="5"/>
       <c r="K166" s="7"/>
     </row>
-    <row r="167" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D167" s="4"/>
-      <c r="E167" s="5"/>
-      <c r="F167" s="5"/>
+    <row r="167" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C167" s="42"/>
+      <c r="D167" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E167" s="6">
+        <f>E166/25</f>
+        <v>1.1142857142857144E-7</v>
+      </c>
+      <c r="F167" s="5" t="s">
+        <v>129</v>
+      </c>
       <c r="G167" s="5"/>
       <c r="H167" s="5"/>
       <c r="I167" s="5"/>
       <c r="J167" s="5"/>
       <c r="K167" s="7"/>
     </row>
-    <row r="168" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D168" s="4"/>
-      <c r="E168" s="5"/>
-      <c r="F168" s="5"/>
+    <row r="168" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C168" s="42"/>
+      <c r="D168" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E168" s="27">
+        <f>E167*1000000000</f>
+        <v>111.42857142857143</v>
+      </c>
+      <c r="F168" s="5" t="s">
+        <v>130</v>
+      </c>
       <c r="G168" s="5"/>
       <c r="H168" s="5"/>
       <c r="I168" s="5"/>
       <c r="J168" s="5"/>
       <c r="K168" s="7"/>
     </row>
-    <row r="169" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D169" s="4"/>
-      <c r="E169" s="5"/>
-      <c r="F169" s="5"/>
-      <c r="G169" s="5"/>
-      <c r="H169" s="5"/>
-      <c r="I169" s="5"/>
-      <c r="J169" s="5"/>
-      <c r="K169" s="7"/>
-    </row>
-    <row r="170" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D170" s="4"/>
-      <c r="E170" s="5"/>
-      <c r="F170" s="5"/>
-      <c r="G170" s="5"/>
-      <c r="H170" s="5"/>
-      <c r="I170" s="5"/>
-      <c r="J170" s="5"/>
-      <c r="K170" s="7"/>
-    </row>
-    <row r="171" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D171" s="4"/>
-      <c r="E171" s="5"/>
-      <c r="F171" s="5"/>
-      <c r="G171" s="5"/>
-      <c r="H171" s="5"/>
-      <c r="I171" s="5"/>
-      <c r="J171" s="5"/>
+    <row r="169" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C169" s="42"/>
+      <c r="D169" s="9"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="10"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="10"/>
+      <c r="I169" s="10"/>
+      <c r="J169" s="10"/>
+      <c r="K169" s="11"/>
+    </row>
+    <row r="170" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C170" s="42"/>
+      <c r="D170" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E170" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F170" s="2"/>
+      <c r="G170" s="2"/>
+      <c r="H170" s="2"/>
+      <c r="I170" s="2"/>
+      <c r="J170" s="2"/>
+      <c r="K170" s="3"/>
+    </row>
+    <row r="171" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C171" s="42"/>
+      <c r="D171" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E171" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F171" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G171" s="38" t="s">
+        <v>132</v>
+      </c>
+      <c r="H171" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I171" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J171" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="K171" s="7"/>
     </row>
-    <row r="172" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D172" s="4"/>
-      <c r="E172" s="5"/>
-      <c r="F172" s="5"/>
-      <c r="G172" s="5"/>
-      <c r="H172" s="5"/>
-      <c r="I172" s="5"/>
-      <c r="J172" s="5"/>
-      <c r="K172" s="7"/>
-    </row>
-    <row r="173" spans="4:11" x14ac:dyDescent="0.25">
-      <c r="D173" s="4"/>
-      <c r="E173" s="5"/>
-      <c r="F173" s="5"/>
+    <row r="172" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C172" s="42"/>
+      <c r="D172" s="37">
+        <v>35000</v>
+      </c>
+      <c r="E172" s="18" t="s">
+        <v>133</v>
+      </c>
+      <c r="F172" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G172" s="12">
+        <v>0.67</v>
+      </c>
+      <c r="H172" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I172" s="18">
+        <v>0</v>
+      </c>
+      <c r="J172" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K172" s="19"/>
+    </row>
+    <row r="173" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C173" s="42"/>
+      <c r="D173" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E173" s="27">
+        <f>$E$139*D172</f>
+        <v>9.1874999999999998E-2</v>
+      </c>
+      <c r="F173" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="G173" s="5"/>
       <c r="H173" s="5"/>
       <c r="I173" s="5"/>
       <c r="J173" s="5"/>
       <c r="K173" s="7"/>
     </row>
-    <row r="174" spans="4:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D174" s="9"/>
-      <c r="E174" s="10"/>
-      <c r="F174" s="10"/>
-      <c r="G174" s="10"/>
-      <c r="H174" s="10"/>
-      <c r="I174" s="10"/>
-      <c r="J174" s="10"/>
-      <c r="K174" s="11"/>
+    <row r="174" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C174" s="42"/>
+      <c r="D174" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E174" s="5">
+        <v>2220</v>
+      </c>
+      <c r="F174" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G174" s="5"/>
+      <c r="H174" s="5"/>
+      <c r="I174" s="5"/>
+      <c r="J174" s="5"/>
+      <c r="K174" s="7"/>
+    </row>
+    <row r="175" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C175" s="42"/>
+      <c r="D175" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E175" s="5">
+        <v>2292</v>
+      </c>
+      <c r="F175" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G175" s="5"/>
+      <c r="H175" s="5"/>
+      <c r="I175" s="5"/>
+      <c r="J175" s="5"/>
+      <c r="K175" s="7"/>
+    </row>
+    <row r="176" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C176" s="42"/>
+      <c r="D176" s="4"/>
+      <c r="E176" s="5"/>
+      <c r="F176" s="5"/>
+      <c r="G176" s="5"/>
+      <c r="H176" s="5"/>
+      <c r="I176" s="5"/>
+      <c r="J176" s="5"/>
+      <c r="K176" s="7"/>
+    </row>
+    <row r="177" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C177" s="42"/>
+      <c r="D177" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E177" s="5">
+        <f>(E175-E174)/1000</f>
+        <v>7.1999999999999995E-2</v>
+      </c>
+      <c r="F177" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G177" s="5"/>
+      <c r="H177" s="5"/>
+      <c r="I177" s="5"/>
+      <c r="J177" s="5"/>
+      <c r="K177" s="7"/>
+    </row>
+    <row r="178" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C178" s="42"/>
+      <c r="D178" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E178" s="6">
+        <f>E177/D172</f>
+        <v>2.0571428571428569E-6</v>
+      </c>
+      <c r="F178" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G178" s="5"/>
+      <c r="H178" s="5"/>
+      <c r="I178" s="5"/>
+      <c r="J178" s="5"/>
+      <c r="K178" s="7"/>
+    </row>
+    <row r="179" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C179" s="42"/>
+      <c r="D179" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E179" s="6">
+        <f>E178/25</f>
+        <v>8.2285714285714279E-8</v>
+      </c>
+      <c r="F179" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G179" s="5"/>
+      <c r="H179" s="5"/>
+      <c r="I179" s="5"/>
+      <c r="J179" s="5"/>
+      <c r="K179" s="7"/>
+    </row>
+    <row r="180" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C180" s="42"/>
+      <c r="D180" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E180" s="27">
+        <f>E179*1000000000</f>
+        <v>82.285714285714278</v>
+      </c>
+      <c r="F180" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G180" s="5"/>
+      <c r="H180" s="5"/>
+      <c r="I180" s="5"/>
+      <c r="J180" s="5"/>
+      <c r="K180" s="7"/>
+    </row>
+    <row r="181" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C181" s="42"/>
+      <c r="D181" s="4"/>
+      <c r="E181" s="5"/>
+      <c r="F181" s="5"/>
+      <c r="G181" s="5"/>
+      <c r="H181" s="5"/>
+      <c r="I181" s="5"/>
+      <c r="J181" s="5"/>
+      <c r="K181" s="7"/>
+    </row>
+    <row r="182" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C182" s="42"/>
+      <c r="D182" s="4"/>
+      <c r="E182" s="5"/>
+      <c r="F182" s="5"/>
+      <c r="G182" s="5"/>
+      <c r="H182" s="5"/>
+      <c r="I182" s="5"/>
+      <c r="J182" s="5"/>
+      <c r="K182" s="7"/>
+    </row>
+    <row r="183" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C183" s="42"/>
+      <c r="D183" s="4"/>
+      <c r="E183" s="5"/>
+      <c r="F183" s="5"/>
+      <c r="G183" s="5"/>
+      <c r="H183" s="5"/>
+      <c r="I183" s="5"/>
+      <c r="J183" s="5"/>
+      <c r="K183" s="7"/>
+    </row>
+    <row r="184" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C184" s="42"/>
+      <c r="D184" s="4"/>
+      <c r="E184" s="5"/>
+      <c r="F184" s="5"/>
+      <c r="G184" s="5"/>
+      <c r="H184" s="5"/>
+      <c r="I184" s="5"/>
+      <c r="J184" s="5"/>
+      <c r="K184" s="7"/>
+    </row>
+    <row r="185" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C185" s="42"/>
+      <c r="D185" s="4"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5"/>
+      <c r="K185" s="7"/>
+    </row>
+    <row r="186" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C186" s="42"/>
+      <c r="D186" s="4"/>
+      <c r="E186" s="5"/>
+      <c r="F186" s="5"/>
+      <c r="G186" s="5"/>
+      <c r="H186" s="5"/>
+      <c r="I186" s="5"/>
+      <c r="J186" s="5"/>
+      <c r="K186" s="7"/>
+    </row>
+    <row r="187" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C187" s="42"/>
+      <c r="D187" s="9"/>
+      <c r="E187" s="10"/>
+      <c r="F187" s="10"/>
+      <c r="G187" s="10"/>
+      <c r="H187" s="10"/>
+      <c r="I187" s="10"/>
+      <c r="J187" s="10"/>
+      <c r="K187" s="11"/>
+    </row>
+    <row r="188" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C188" s="42"/>
+      <c r="D188" s="13" t="s">
+        <v>52</v>
+      </c>
+      <c r="E188" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="F188" s="2"/>
+      <c r="G188" s="2"/>
+      <c r="H188" s="2"/>
+      <c r="I188" s="2"/>
+      <c r="J188" s="2"/>
+      <c r="K188" s="3"/>
+    </row>
+    <row r="189" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C189" s="42"/>
+      <c r="D189" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E189" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F189" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G189" s="38" t="s">
+        <v>139</v>
+      </c>
+      <c r="H189" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I189" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J189" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K189" s="7"/>
+    </row>
+    <row r="190" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C190" s="42"/>
+      <c r="D190" s="37">
+        <v>120000</v>
+      </c>
+      <c r="E190" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F190" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G190" s="12">
+        <v>0.2</v>
+      </c>
+      <c r="H190" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I190" s="18">
+        <v>0</v>
+      </c>
+      <c r="J190" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K190" s="19"/>
+    </row>
+    <row r="191" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C191" s="42"/>
+      <c r="D191" s="4" t="s">
+        <v>131</v>
+      </c>
+      <c r="E191" s="27">
+        <f>$E$139*D190</f>
+        <v>0.315</v>
+      </c>
+      <c r="F191" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G191" s="5"/>
+      <c r="H191" s="5"/>
+      <c r="I191" s="5"/>
+      <c r="J191" s="5"/>
+      <c r="K191" s="7"/>
+    </row>
+    <row r="192" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C192" s="42"/>
+      <c r="D192" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E192" s="5">
+        <v>1070</v>
+      </c>
+      <c r="F192" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G192" s="5"/>
+      <c r="H192" s="5"/>
+      <c r="I192" s="5"/>
+      <c r="J192" s="5"/>
+      <c r="K192" s="7"/>
+    </row>
+    <row r="193" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C193" s="42"/>
+      <c r="D193" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E193" s="5">
+        <v>1416</v>
+      </c>
+      <c r="F193" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="G193" s="5"/>
+      <c r="H193" s="5"/>
+      <c r="I193" s="5"/>
+      <c r="J193" s="5"/>
+      <c r="K193" s="7"/>
+    </row>
+    <row r="194" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C194" s="42"/>
+      <c r="D194" s="4"/>
+      <c r="E194" s="5"/>
+      <c r="F194" s="5"/>
+      <c r="G194" s="5"/>
+      <c r="H194" s="5"/>
+      <c r="I194" s="5"/>
+      <c r="J194" s="5"/>
+      <c r="K194" s="7"/>
+    </row>
+    <row r="195" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C195" s="42"/>
+      <c r="D195" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E195" s="5">
+        <f>(E193-E192)/1000</f>
+        <v>0.34599999999999997</v>
+      </c>
+      <c r="F195" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G195" s="5"/>
+      <c r="H195" s="5"/>
+      <c r="I195" s="5"/>
+      <c r="J195" s="5"/>
+      <c r="K195" s="7"/>
+    </row>
+    <row r="196" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C196" s="42"/>
+      <c r="D196" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E196" s="6">
+        <f>E195/D190</f>
+        <v>2.883333333333333E-6</v>
+      </c>
+      <c r="F196" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G196" s="5"/>
+      <c r="H196" s="5"/>
+      <c r="I196" s="5"/>
+      <c r="J196" s="5"/>
+      <c r="K196" s="7"/>
+    </row>
+    <row r="197" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C197" s="42"/>
+      <c r="D197" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E197" s="6">
+        <f>E196/25</f>
+        <v>1.1533333333333332E-7</v>
+      </c>
+      <c r="F197" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="G197" s="5"/>
+      <c r="H197" s="5"/>
+      <c r="I197" s="5"/>
+      <c r="J197" s="5"/>
+      <c r="K197" s="7"/>
+    </row>
+    <row r="198" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C198" s="42"/>
+      <c r="D198" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="E198" s="27">
+        <f>E197*1000000000</f>
+        <v>115.33333333333331</v>
+      </c>
+      <c r="F198" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="G198" s="5"/>
+      <c r="H198" s="5"/>
+      <c r="I198" s="5"/>
+      <c r="J198" s="5"/>
+      <c r="K198" s="7"/>
+    </row>
+    <row r="199" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C199" s="42"/>
+      <c r="D199" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E199" s="33"/>
+      <c r="F199" s="33"/>
+      <c r="G199" s="5"/>
+      <c r="H199" s="5"/>
+      <c r="I199" s="5"/>
+      <c r="J199" s="5"/>
+      <c r="K199" s="7"/>
+    </row>
+    <row r="200" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C200" s="42"/>
+      <c r="D200" s="32"/>
+      <c r="E200" s="33"/>
+      <c r="F200" s="33"/>
+      <c r="G200" s="5"/>
+      <c r="H200" s="5"/>
+      <c r="I200" s="5"/>
+      <c r="J200" s="5"/>
+      <c r="K200" s="7"/>
+    </row>
+    <row r="201" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C201" s="42"/>
+      <c r="D201" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E201" s="6">
+        <f>4/D190</f>
+        <v>3.3333333333333335E-5</v>
+      </c>
+      <c r="F201" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G201" s="5"/>
+      <c r="H201" s="5"/>
+      <c r="I201" s="5"/>
+      <c r="J201" s="5"/>
+      <c r="K201" s="7"/>
+    </row>
+    <row r="202" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C202" s="43"/>
+      <c r="D202" s="21" t="s">
+        <v>140</v>
+      </c>
+      <c r="E202" s="28">
+        <f>E201/E197</f>
+        <v>289.0173410404625</v>
+      </c>
+      <c r="F202" s="22" t="s">
+        <v>141</v>
+      </c>
+      <c r="G202" s="10"/>
+      <c r="H202" s="10"/>
+      <c r="I202" s="10"/>
+      <c r="J202" s="10"/>
+      <c r="K202" s="11"/>
+    </row>
+    <row r="203" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="204" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C204" s="34" t="s">
+        <v>107</v>
+      </c>
+      <c r="D204" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="E204" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="F204" s="2"/>
+      <c r="G204" s="2"/>
+      <c r="H204" s="2"/>
+      <c r="I204" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="J204" s="2"/>
+      <c r="K204" s="3"/>
+    </row>
+    <row r="205" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C205" s="35"/>
+      <c r="D205" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="E205" s="5">
+        <f>(55+85)/2</f>
+        <v>70</v>
+      </c>
+      <c r="F205" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="G205" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H205" s="5"/>
+      <c r="I205" s="5"/>
+      <c r="J205" s="5"/>
+      <c r="K205" s="7"/>
+    </row>
+    <row r="206" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C206" s="35"/>
+      <c r="D206" s="4"/>
+      <c r="E206" s="5">
+        <f>E205*0.000000001</f>
+        <v>7.0000000000000005E-8</v>
+      </c>
+      <c r="F206" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="G206" s="5"/>
+      <c r="H206" s="5"/>
+      <c r="I206" s="5"/>
+      <c r="J206" s="5"/>
+      <c r="K206" s="7"/>
+    </row>
+    <row r="207" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C207" s="35"/>
+      <c r="D207" s="4"/>
+      <c r="E207" s="5"/>
+      <c r="F207" s="5"/>
+      <c r="G207" s="5"/>
+      <c r="H207" s="5"/>
+      <c r="I207" s="5"/>
+      <c r="J207" s="5"/>
+      <c r="K207" s="7"/>
+    </row>
+    <row r="208" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C208" s="35"/>
+      <c r="D208" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="E208" s="6">
+        <f>E206*50</f>
+        <v>3.5000000000000004E-6</v>
+      </c>
+      <c r="F208" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G208" s="5"/>
+      <c r="H208" s="5"/>
+      <c r="I208" s="5"/>
+      <c r="J208" s="5"/>
+      <c r="K208" s="7"/>
+    </row>
+    <row r="209" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C209" s="35"/>
+      <c r="D209" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E209" s="5"/>
+      <c r="F209" s="5"/>
+      <c r="G209" s="5"/>
+      <c r="H209" s="5"/>
+      <c r="I209" s="5"/>
+      <c r="J209" s="5"/>
+      <c r="K209" s="7"/>
+    </row>
+    <row r="210" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C210" s="35"/>
+      <c r="D210" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="E210" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F210" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="G210" s="15" t="s">
+        <v>75</v>
+      </c>
+      <c r="H210" s="15" t="s">
+        <v>76</v>
+      </c>
+      <c r="I210" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="J210" s="15" t="s">
+        <v>78</v>
+      </c>
+      <c r="K210" s="7"/>
+    </row>
+    <row r="211" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C211" s="35"/>
+      <c r="D211" s="25">
+        <v>120000</v>
+      </c>
+      <c r="E211" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="F211" s="18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G211" s="26">
+        <v>0.2</v>
+      </c>
+      <c r="H211" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I211" s="18">
+        <v>0</v>
+      </c>
+      <c r="J211" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="K211" s="19"/>
+    </row>
+    <row r="212" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C212" s="35"/>
+      <c r="D212" s="4"/>
+      <c r="E212" s="5"/>
+      <c r="F212" s="5"/>
+      <c r="G212" s="5"/>
+      <c r="H212" s="5"/>
+      <c r="I212" s="5"/>
+      <c r="J212" s="5"/>
+      <c r="K212" s="7"/>
+    </row>
+    <row r="213" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C213" s="35"/>
+      <c r="D213" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="E213" s="27">
+        <f>E208*D211</f>
+        <v>0.42000000000000004</v>
+      </c>
+      <c r="F213" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G213" s="5"/>
+      <c r="H213" s="5"/>
+      <c r="I213" s="5"/>
+      <c r="J213" s="5"/>
+      <c r="K213" s="7"/>
+    </row>
+    <row r="214" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C214" s="35"/>
+      <c r="D214" s="4"/>
+      <c r="E214" s="5"/>
+      <c r="F214" s="15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G214" s="5"/>
+      <c r="H214" s="5"/>
+      <c r="I214" s="5"/>
+      <c r="J214" s="5"/>
+      <c r="K214" s="7"/>
+    </row>
+    <row r="215" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C215" s="35"/>
+      <c r="D215" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="E215" s="5">
+        <v>1309</v>
+      </c>
+      <c r="F215" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="G215" s="5"/>
+      <c r="H215" s="5"/>
+      <c r="I215" s="5"/>
+      <c r="J215" s="5"/>
+      <c r="K215" s="7"/>
+    </row>
+    <row r="216" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C216" s="35"/>
+      <c r="D216" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E216" s="5">
+        <v>1861</v>
+      </c>
+      <c r="F216" s="15" t="s">
+        <v>116</v>
+      </c>
+      <c r="G216" s="5"/>
+      <c r="H216" s="5"/>
+      <c r="I216" s="5"/>
+      <c r="J216" s="5"/>
+      <c r="K216" s="7"/>
+    </row>
+    <row r="217" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C217" s="35"/>
+      <c r="D217" s="4"/>
+      <c r="E217" s="5"/>
+      <c r="F217" s="5"/>
+      <c r="G217" s="5"/>
+      <c r="H217" s="5"/>
+      <c r="I217" s="5"/>
+      <c r="J217" s="5"/>
+      <c r="K217" s="7"/>
+    </row>
+    <row r="218" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C218" s="35"/>
+      <c r="D218" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E218" s="5">
+        <f>(E216-E215)/1000</f>
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="F218" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G218" s="5"/>
+      <c r="H218" s="5"/>
+      <c r="I218" s="5"/>
+      <c r="J218" s="5"/>
+      <c r="K218" s="7"/>
+    </row>
+    <row r="219" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C219" s="35"/>
+      <c r="D219" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E219" s="6">
+        <f>E218/D211</f>
+        <v>4.6E-6</v>
+      </c>
+      <c r="F219" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G219" s="5"/>
+      <c r="H219" s="5"/>
+      <c r="I219" s="5"/>
+      <c r="J219" s="5"/>
+      <c r="K219" s="7"/>
+    </row>
+    <row r="220" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C220" s="35"/>
+      <c r="D220" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E220" s="6">
+        <f>E219/50</f>
+        <v>9.2000000000000003E-8</v>
+      </c>
+      <c r="F220" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G220" s="5"/>
+      <c r="H220" s="5"/>
+      <c r="I220" s="5"/>
+      <c r="J220" s="5"/>
+      <c r="K220" s="7"/>
+    </row>
+    <row r="221" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C221" s="35"/>
+      <c r="D221" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E221" s="27">
+        <f>E220*1000000000</f>
+        <v>92</v>
+      </c>
+      <c r="F221" s="5" t="s">
+        <v>122</v>
+      </c>
+      <c r="G221" s="5"/>
+      <c r="H221" s="5"/>
+      <c r="I221" s="5"/>
+      <c r="J221" s="5"/>
+      <c r="K221" s="7"/>
+    </row>
+    <row r="222" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C222" s="35"/>
+      <c r="D222" s="4"/>
+      <c r="E222" s="5"/>
+      <c r="F222" s="5"/>
+      <c r="G222" s="5"/>
+      <c r="H222" s="5"/>
+      <c r="I222" s="5"/>
+      <c r="J222" s="5"/>
+      <c r="K222" s="7"/>
+    </row>
+    <row r="223" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C223" s="35"/>
+      <c r="D223" s="32" t="s">
+        <v>117</v>
+      </c>
+      <c r="E223" s="33"/>
+      <c r="F223" s="33"/>
+      <c r="G223" s="5"/>
+      <c r="H223" s="5"/>
+      <c r="I223" s="5"/>
+      <c r="J223" s="5"/>
+      <c r="K223" s="7"/>
+    </row>
+    <row r="224" spans="3:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C224" s="35"/>
+      <c r="D224" s="32"/>
+      <c r="E224" s="33"/>
+      <c r="F224" s="33"/>
+      <c r="G224" s="5"/>
+      <c r="H224" s="5"/>
+      <c r="I224" s="5"/>
+      <c r="J224" s="5"/>
+      <c r="K224" s="7"/>
+    </row>
+    <row r="225" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C225" s="35"/>
+      <c r="D225" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="E225" s="6">
+        <f>4/D211</f>
+        <v>3.3333333333333335E-5</v>
+      </c>
+      <c r="F225" s="15" t="s">
+        <v>40</v>
+      </c>
+      <c r="G225" s="5"/>
+      <c r="H225" s="5"/>
+      <c r="I225" s="5"/>
+      <c r="J225" s="5"/>
+      <c r="K225" s="7"/>
+    </row>
+    <row r="226" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C226" s="35"/>
+      <c r="D226" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="E226" s="29">
+        <f>E225/E220</f>
+        <v>362.31884057971013</v>
+      </c>
+      <c r="F226" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="G226" s="5"/>
+      <c r="H226" s="5"/>
+      <c r="I226" s="5"/>
+      <c r="J226" s="5"/>
+      <c r="K226" s="7"/>
+    </row>
+    <row r="227" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C227" s="35"/>
+      <c r="D227" s="4"/>
+      <c r="E227" s="5"/>
+      <c r="F227" s="5"/>
+      <c r="G227" s="5"/>
+      <c r="H227" s="5"/>
+      <c r="I227" s="5"/>
+      <c r="J227" s="5"/>
+      <c r="K227" s="7"/>
+    </row>
+    <row r="228" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C228" s="35"/>
+      <c r="D228" s="4"/>
+      <c r="E228" s="5"/>
+      <c r="F228" s="5"/>
+      <c r="G228" s="5"/>
+      <c r="H228" s="5"/>
+      <c r="I228" s="5"/>
+      <c r="J228" s="5"/>
+      <c r="K228" s="7"/>
+    </row>
+    <row r="229" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C229" s="35"/>
+      <c r="D229" s="4"/>
+      <c r="E229" s="5"/>
+      <c r="F229" s="5"/>
+      <c r="G229" s="5"/>
+      <c r="H229" s="5"/>
+      <c r="I229" s="5"/>
+      <c r="J229" s="5"/>
+      <c r="K229" s="7"/>
+    </row>
+    <row r="230" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C230" s="35"/>
+      <c r="D230" s="4"/>
+      <c r="E230" s="5"/>
+      <c r="F230" s="5"/>
+      <c r="G230" s="5"/>
+      <c r="H230" s="5"/>
+      <c r="I230" s="5"/>
+      <c r="J230" s="5"/>
+      <c r="K230" s="7"/>
+    </row>
+    <row r="231" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C231" s="35"/>
+      <c r="D231" s="4"/>
+      <c r="E231" s="5"/>
+      <c r="F231" s="5"/>
+      <c r="G231" s="5"/>
+      <c r="H231" s="5"/>
+      <c r="I231" s="5"/>
+      <c r="J231" s="5"/>
+      <c r="K231" s="7"/>
+    </row>
+    <row r="232" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C232" s="35"/>
+      <c r="D232" s="4"/>
+      <c r="E232" s="5"/>
+      <c r="F232" s="5"/>
+      <c r="G232" s="5"/>
+      <c r="H232" s="5"/>
+      <c r="I232" s="5"/>
+      <c r="J232" s="5"/>
+      <c r="K232" s="7"/>
+    </row>
+    <row r="233" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C233" s="35"/>
+      <c r="D233" s="4"/>
+      <c r="E233" s="5"/>
+      <c r="F233" s="5"/>
+      <c r="G233" s="5"/>
+      <c r="H233" s="5"/>
+      <c r="I233" s="5"/>
+      <c r="J233" s="5"/>
+      <c r="K233" s="7"/>
+    </row>
+    <row r="234" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C234" s="35"/>
+      <c r="D234" s="4"/>
+      <c r="E234" s="5"/>
+      <c r="F234" s="5"/>
+      <c r="G234" s="5"/>
+      <c r="H234" s="5"/>
+      <c r="I234" s="5"/>
+      <c r="J234" s="5"/>
+      <c r="K234" s="7"/>
+    </row>
+    <row r="235" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C235" s="35"/>
+      <c r="D235" s="4"/>
+      <c r="E235" s="5"/>
+      <c r="F235" s="5"/>
+      <c r="G235" s="5"/>
+      <c r="H235" s="5"/>
+      <c r="I235" s="5"/>
+      <c r="J235" s="5"/>
+      <c r="K235" s="7"/>
+    </row>
+    <row r="236" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C236" s="35"/>
+      <c r="D236" s="4"/>
+      <c r="E236" s="5"/>
+      <c r="F236" s="5"/>
+      <c r="G236" s="5"/>
+      <c r="H236" s="5"/>
+      <c r="I236" s="5"/>
+      <c r="J236" s="5"/>
+      <c r="K236" s="7"/>
+    </row>
+    <row r="237" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C237" s="35"/>
+      <c r="D237" s="4"/>
+      <c r="E237" s="5"/>
+      <c r="F237" s="5"/>
+      <c r="G237" s="5"/>
+      <c r="H237" s="5"/>
+      <c r="I237" s="5"/>
+      <c r="J237" s="5"/>
+      <c r="K237" s="7"/>
+    </row>
+    <row r="238" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C238" s="35"/>
+      <c r="D238" s="4"/>
+      <c r="E238" s="5"/>
+      <c r="F238" s="5"/>
+      <c r="G238" s="5"/>
+      <c r="H238" s="5"/>
+      <c r="I238" s="5"/>
+      <c r="J238" s="5"/>
+      <c r="K238" s="7"/>
+    </row>
+    <row r="239" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C239" s="35"/>
+      <c r="D239" s="4"/>
+      <c r="E239" s="5"/>
+      <c r="F239" s="5"/>
+      <c r="G239" s="5"/>
+      <c r="H239" s="5"/>
+      <c r="I239" s="5"/>
+      <c r="J239" s="5"/>
+      <c r="K239" s="7"/>
+    </row>
+    <row r="240" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C240" s="35"/>
+      <c r="D240" s="4"/>
+      <c r="E240" s="5"/>
+      <c r="F240" s="5"/>
+      <c r="G240" s="5"/>
+      <c r="H240" s="5"/>
+      <c r="I240" s="5"/>
+      <c r="J240" s="5"/>
+      <c r="K240" s="7"/>
+    </row>
+    <row r="241" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C241" s="35"/>
+      <c r="D241" s="4"/>
+      <c r="E241" s="5"/>
+      <c r="F241" s="5"/>
+      <c r="G241" s="5"/>
+      <c r="H241" s="5"/>
+      <c r="I241" s="5"/>
+      <c r="J241" s="5"/>
+      <c r="K241" s="7"/>
+    </row>
+    <row r="242" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C242" s="35"/>
+      <c r="D242" s="4"/>
+      <c r="E242" s="5"/>
+      <c r="F242" s="5"/>
+      <c r="G242" s="5"/>
+      <c r="H242" s="5"/>
+      <c r="I242" s="5"/>
+      <c r="J242" s="5"/>
+      <c r="K242" s="7"/>
+    </row>
+    <row r="243" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C243" s="35"/>
+      <c r="D243" s="4"/>
+      <c r="E243" s="5"/>
+      <c r="F243" s="5"/>
+      <c r="G243" s="5"/>
+      <c r="H243" s="5"/>
+      <c r="I243" s="5"/>
+      <c r="J243" s="5"/>
+      <c r="K243" s="7"/>
+    </row>
+    <row r="244" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C244" s="35"/>
+      <c r="D244" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="E244" s="5"/>
+      <c r="F244" s="5"/>
+      <c r="G244" s="5"/>
+      <c r="H244" s="5"/>
+      <c r="I244" s="5"/>
+      <c r="J244" s="5"/>
+      <c r="K244" s="7"/>
+    </row>
+    <row r="245" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C245" s="35"/>
+      <c r="D245" s="4"/>
+      <c r="E245" s="5"/>
+      <c r="F245" s="5"/>
+      <c r="G245" s="5"/>
+      <c r="H245" s="5"/>
+      <c r="I245" s="5"/>
+      <c r="J245" s="5"/>
+      <c r="K245" s="7"/>
+    </row>
+    <row r="246" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C246" s="35"/>
+      <c r="D246" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E246" s="5">
+        <v>1116</v>
+      </c>
+      <c r="F246" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G246" s="5"/>
+      <c r="H246" s="5"/>
+      <c r="I246" s="5"/>
+      <c r="J246" s="5"/>
+      <c r="K246" s="7"/>
+    </row>
+    <row r="247" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C247" s="35"/>
+      <c r="D247" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="E247" s="5">
+        <v>1681</v>
+      </c>
+      <c r="F247" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="G247" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="H247" s="5"/>
+      <c r="I247" s="5"/>
+      <c r="J247" s="5"/>
+      <c r="K247" s="7"/>
+    </row>
+    <row r="248" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C248" s="35"/>
+      <c r="D248" s="4"/>
+      <c r="E248" s="5"/>
+      <c r="F248" s="5"/>
+      <c r="G248" s="5"/>
+      <c r="H248" s="5"/>
+      <c r="I248" s="5"/>
+      <c r="J248" s="5"/>
+      <c r="K248" s="7"/>
+    </row>
+    <row r="249" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C249" s="35"/>
+      <c r="D249" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E249" s="5">
+        <f>(E247-E246)/1000</f>
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="F249" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="G249" s="5"/>
+      <c r="H249" s="5"/>
+      <c r="I249" s="5"/>
+      <c r="J249" s="5"/>
+      <c r="K249" s="7"/>
+    </row>
+    <row r="250" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C250" s="35"/>
+      <c r="D250" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E250" s="6">
+        <f>E249/D211</f>
+        <v>4.7083333333333329E-6</v>
+      </c>
+      <c r="F250" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="G250" s="5"/>
+      <c r="H250" s="5"/>
+      <c r="I250" s="5"/>
+      <c r="J250" s="5"/>
+      <c r="K250" s="7"/>
+    </row>
+    <row r="251" spans="3:11" x14ac:dyDescent="0.25">
+      <c r="C251" s="35"/>
+      <c r="D251" s="4" t="s">
+        <v>114</v>
+      </c>
+      <c r="E251" s="6">
+        <f>E250/50</f>
+        <v>9.4166666666666656E-8</v>
+      </c>
+      <c r="F251" s="5" t="s">
+        <v>121</v>
+      </c>
+      <c r="G251" s="5"/>
+      <c r="H251" s="5"/>
+      <c r="I251" s="5"/>
+      <c r="J251" s="5"/>
+      <c r="K251" s="7"/>
+    </row>
+    <row r="252" spans="3:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C252" s="36"/>
+      <c r="D252" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="E252" s="30">
+        <f>E251*1000000000</f>
+        <v>94.166666666666657</v>
+      </c>
+      <c r="F252" s="10" t="s">
+        <v>122</v>
+      </c>
+      <c r="G252" s="10"/>
+      <c r="H252" s="10"/>
+      <c r="I252" s="10"/>
+      <c r="J252" s="10"/>
+      <c r="K252" s="11"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="8">
     <mergeCell ref="D71:F72"/>
-    <mergeCell ref="D115:F116"/>
-    <mergeCell ref="D153:F154"/>
+    <mergeCell ref="D129:F130"/>
+    <mergeCell ref="D223:F224"/>
+    <mergeCell ref="C91:C132"/>
+    <mergeCell ref="C204:C252"/>
+    <mergeCell ref="C22:C89"/>
+    <mergeCell ref="D199:F200"/>
+    <mergeCell ref="C135:C202"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
